--- a/remai/export_student_y2024-250306.xlsx
+++ b/remai/export_student_y2024-250306.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george1442/stt/remai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E4954E-A831-2C4C-80AB-00902AE59205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50019035-3EC4-BA49-8863-BECB3800BAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="27300" xr2:uid="{9248F828-5DB6-1D45-A996-C95EA5D5E7D2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27300" xr2:uid="{9248F828-5DB6-1D45-A996-C95EA5D5E7D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12269,7 +12269,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97F5D040-2C76-4742-AD03-34454377B75F}" name="Table1" displayName="Table1" ref="A1:AD586" totalsRowShown="0" dataDxfId="34">
-  <autoFilter ref="A1:AD586" xr:uid="{97F5D040-2C76-4742-AD03-34454377B75F}"/>
+  <autoFilter ref="A1:AD586" xr:uid="{97F5D040-2C76-4742-AD03-34454377B75F}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="802"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{7C4629AA-E297-0C4D-882A-4872F95DCACE}" name="sid" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{1385476F-FE67-8A45-8A2B-0699CB709D2D}" name="name" dataDxfId="32"/>
@@ -12606,7 +12612,7 @@
   <dimension ref="A1:AK586"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+      <selection activeCell="F226" sqref="F226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="20"/>
@@ -12615,6 +12621,7 @@
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
     <col min="4" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
     <col min="9" max="9" width="16.83203125" customWidth="1"/>
     <col min="13" max="13" width="40.83203125" customWidth="1"/>
     <col min="16" max="17" width="8.83203125" customWidth="1"/>
@@ -12719,7 +12726,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" hidden="1">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -12791,7 +12798,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" hidden="1">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -12889,7 +12896,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" hidden="1">
       <c r="A4" s="9" t="s">
         <v>66</v>
       </c>
@@ -12987,7 +12994,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" hidden="1">
       <c r="A5" s="9" t="s">
         <v>80</v>
       </c>
@@ -13085,7 +13092,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" hidden="1">
       <c r="A6" s="9" t="s">
         <v>91</v>
       </c>
@@ -13183,7 +13190,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" hidden="1">
       <c r="A7" s="9" t="s">
         <v>103</v>
       </c>
@@ -13275,7 +13282,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" hidden="1">
       <c r="A8" s="9" t="s">
         <v>114</v>
       </c>
@@ -13341,7 +13348,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="12"/>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" hidden="1">
       <c r="A9" s="9" t="s">
         <v>119</v>
       </c>
@@ -13407,7 +13414,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="12"/>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" hidden="1">
       <c r="A10" s="9" t="s">
         <v>124</v>
       </c>
@@ -13473,7 +13480,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="12"/>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" hidden="1">
       <c r="A11" s="9" t="s">
         <v>129</v>
       </c>
@@ -13539,7 +13546,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="12"/>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" hidden="1">
       <c r="A12" s="9" t="s">
         <v>134</v>
       </c>
@@ -13631,7 +13638,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" hidden="1">
       <c r="A13" s="9" t="s">
         <v>144</v>
       </c>
@@ -13723,7 +13730,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" hidden="1">
       <c r="A14" s="9" t="s">
         <v>156</v>
       </c>
@@ -13815,7 +13822,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" hidden="1">
       <c r="A15" s="9" t="s">
         <v>161</v>
       </c>
@@ -13881,7 +13888,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="12"/>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" hidden="1">
       <c r="A16" s="9" t="s">
         <v>168</v>
       </c>
@@ -13973,7 +13980,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" hidden="1">
       <c r="A17" s="9" t="s">
         <v>173</v>
       </c>
@@ -14131,7 +14138,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="12"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" hidden="1">
       <c r="A19" s="9" t="s">
         <v>184</v>
       </c>
@@ -14197,7 +14204,7 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="12"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" hidden="1">
       <c r="A20" s="9" t="s">
         <v>189</v>
       </c>
@@ -14289,7 +14296,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" hidden="1">
       <c r="A21" s="9" t="s">
         <v>198</v>
       </c>
@@ -14355,7 +14362,7 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="12"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" hidden="1">
       <c r="A22" s="9" t="s">
         <v>203</v>
       </c>
@@ -14447,7 +14454,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" hidden="1">
       <c r="A23" s="9" t="s">
         <v>211</v>
       </c>
@@ -14513,7 +14520,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="12"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" hidden="1">
       <c r="A24" s="9" t="s">
         <v>217</v>
       </c>
@@ -14605,7 +14612,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" hidden="1">
       <c r="A25" s="9" t="s">
         <v>222</v>
       </c>
@@ -14697,7 +14704,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" hidden="1">
       <c r="A26" s="9" t="s">
         <v>226</v>
       </c>
@@ -14789,7 +14796,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" hidden="1">
       <c r="A27" s="9" t="s">
         <v>236</v>
       </c>
@@ -14855,7 +14862,7 @@
       <c r="AC27" s="10"/>
       <c r="AD27" s="12"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" hidden="1">
       <c r="A28" s="9" t="s">
         <v>241</v>
       </c>
@@ -14921,7 +14928,7 @@
       <c r="AC28" s="10"/>
       <c r="AD28" s="12"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" hidden="1">
       <c r="A29" s="9" t="s">
         <v>245</v>
       </c>
@@ -15013,7 +15020,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" hidden="1">
       <c r="A30" s="9" t="s">
         <v>255</v>
       </c>
@@ -15105,7 +15112,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" hidden="1">
       <c r="A31" s="9" t="s">
         <v>259</v>
       </c>
@@ -15197,7 +15204,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" hidden="1">
       <c r="A32" s="9" t="s">
         <v>268</v>
       </c>
@@ -15263,7 +15270,7 @@
       <c r="AC32" s="10"/>
       <c r="AD32" s="12"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" hidden="1">
       <c r="A33" s="9" t="s">
         <v>272</v>
       </c>
@@ -15355,7 +15362,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" hidden="1">
       <c r="A34" s="9" t="s">
         <v>277</v>
       </c>
@@ -15447,7 +15454,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" hidden="1">
       <c r="A35" s="9" t="s">
         <v>289</v>
       </c>
@@ -15513,7 +15520,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="12"/>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" hidden="1">
       <c r="A36" s="9" t="s">
         <v>294</v>
       </c>
@@ -15579,7 +15586,7 @@
       <c r="AC36" s="10"/>
       <c r="AD36" s="12"/>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" hidden="1">
       <c r="A37" s="9" t="s">
         <v>299</v>
       </c>
@@ -15671,7 +15678,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" hidden="1">
       <c r="A38" s="9" t="s">
         <v>309</v>
       </c>
@@ -15763,7 +15770,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" hidden="1">
       <c r="A39" s="9" t="s">
         <v>319</v>
       </c>
@@ -15855,7 +15862,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" hidden="1">
       <c r="A40" s="9" t="s">
         <v>329</v>
       </c>
@@ -15921,7 +15928,7 @@
       <c r="AC40" s="10"/>
       <c r="AD40" s="12"/>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" hidden="1">
       <c r="A41" s="9" t="s">
         <v>334</v>
       </c>
@@ -15987,7 +15994,7 @@
       <c r="AC41" s="10"/>
       <c r="AD41" s="12"/>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" hidden="1">
       <c r="A42" s="9" t="s">
         <v>339</v>
       </c>
@@ -16079,7 +16086,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" hidden="1">
       <c r="A43" s="9" t="s">
         <v>351</v>
       </c>
@@ -16171,7 +16178,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" hidden="1">
       <c r="A44" s="9" t="s">
         <v>360</v>
       </c>
@@ -16237,7 +16244,7 @@
       <c r="AC44" s="10"/>
       <c r="AD44" s="12"/>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" hidden="1">
       <c r="A45" s="9" t="s">
         <v>365</v>
       </c>
@@ -16303,7 +16310,7 @@
       <c r="AC45" s="10"/>
       <c r="AD45" s="12"/>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" hidden="1">
       <c r="A46" s="9" t="s">
         <v>370</v>
       </c>
@@ -16395,7 +16402,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" hidden="1">
       <c r="A47" s="9" t="s">
         <v>382</v>
       </c>
@@ -16461,7 +16468,7 @@
       <c r="AC47" s="10"/>
       <c r="AD47" s="12"/>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" hidden="1">
       <c r="A48" s="9" t="s">
         <v>387</v>
       </c>
@@ -16553,7 +16560,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" hidden="1">
       <c r="A49" s="9" t="s">
         <v>398</v>
       </c>
@@ -16645,7 +16652,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" hidden="1">
       <c r="A50" s="9" t="s">
         <v>405</v>
       </c>
@@ -16711,7 +16718,7 @@
       <c r="AC50" s="10"/>
       <c r="AD50" s="12"/>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" hidden="1">
       <c r="A51" s="9" t="s">
         <v>409</v>
       </c>
@@ -16777,7 +16784,7 @@
       <c r="AC51" s="10"/>
       <c r="AD51" s="12"/>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" hidden="1">
       <c r="A52" s="9" t="s">
         <v>414</v>
       </c>
@@ -16843,7 +16850,7 @@
       <c r="AC52" s="10"/>
       <c r="AD52" s="12"/>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" hidden="1">
       <c r="A53" s="9" t="s">
         <v>419</v>
       </c>
@@ -16935,7 +16942,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" hidden="1">
       <c r="A54" s="9" t="s">
         <v>429</v>
       </c>
@@ -17001,7 +17008,7 @@
       <c r="AC54" s="10"/>
       <c r="AD54" s="12"/>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" hidden="1">
       <c r="A55" s="9" t="s">
         <v>434</v>
       </c>
@@ -17093,7 +17100,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" hidden="1">
       <c r="A56" s="9" t="s">
         <v>439</v>
       </c>
@@ -17159,7 +17166,7 @@
       <c r="AC56" s="10"/>
       <c r="AD56" s="12"/>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" hidden="1">
       <c r="A57" s="9" t="s">
         <v>444</v>
       </c>
@@ -17225,7 +17232,7 @@
       <c r="AC57" s="10"/>
       <c r="AD57" s="12"/>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" hidden="1">
       <c r="A58" s="9" t="s">
         <v>449</v>
       </c>
@@ -17317,7 +17324,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" hidden="1">
       <c r="A59" s="9" t="s">
         <v>454</v>
       </c>
@@ -17383,7 +17390,7 @@
       <c r="AC59" s="10"/>
       <c r="AD59" s="12"/>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" hidden="1">
       <c r="A60" s="9" t="s">
         <v>459</v>
       </c>
@@ -17449,7 +17456,7 @@
       <c r="AC60" s="10"/>
       <c r="AD60" s="12"/>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" hidden="1">
       <c r="A61" s="9" t="s">
         <v>464</v>
       </c>
@@ -17541,7 +17548,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" hidden="1">
       <c r="A62" s="9" t="s">
         <v>473</v>
       </c>
@@ -17607,7 +17614,7 @@
       <c r="AC62" s="10"/>
       <c r="AD62" s="12"/>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" hidden="1">
       <c r="A63" s="9" t="s">
         <v>478</v>
       </c>
@@ -17699,7 +17706,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" hidden="1">
       <c r="A64" s="9" t="s">
         <v>483</v>
       </c>
@@ -17765,7 +17772,7 @@
       <c r="AC64" s="10"/>
       <c r="AD64" s="12"/>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" hidden="1">
       <c r="A65" s="9" t="s">
         <v>487</v>
       </c>
@@ -17857,7 +17864,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" hidden="1">
       <c r="A66" s="9" t="s">
         <v>495</v>
       </c>
@@ -17923,7 +17930,7 @@
       <c r="AC66" s="10"/>
       <c r="AD66" s="12"/>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" hidden="1">
       <c r="A67" s="9" t="s">
         <v>500</v>
       </c>
@@ -17989,7 +17996,7 @@
       <c r="AC67" s="10"/>
       <c r="AD67" s="12"/>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:30" hidden="1">
       <c r="A68" s="9" t="s">
         <v>507</v>
       </c>
@@ -18081,7 +18088,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:30" hidden="1">
       <c r="A69" s="9" t="s">
         <v>514</v>
       </c>
@@ -18147,7 +18154,7 @@
       <c r="AC69" s="10"/>
       <c r="AD69" s="12"/>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:30" hidden="1">
       <c r="A70" s="9" t="s">
         <v>518</v>
       </c>
@@ -18239,7 +18246,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:30" hidden="1">
       <c r="A71" s="9" t="s">
         <v>527</v>
       </c>
@@ -18331,7 +18338,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:30" hidden="1">
       <c r="A72" s="9" t="s">
         <v>537</v>
       </c>
@@ -18423,7 +18430,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:30" hidden="1">
       <c r="A73" s="9" t="s">
         <v>542</v>
       </c>
@@ -18515,7 +18522,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:30" hidden="1">
       <c r="A74" s="9" t="s">
         <v>547</v>
       </c>
@@ -18607,7 +18614,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:30" hidden="1">
       <c r="A75" s="9" t="s">
         <v>551</v>
       </c>
@@ -18699,7 +18706,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:30" hidden="1">
       <c r="A76" s="9" t="s">
         <v>556</v>
       </c>
@@ -18765,7 +18772,7 @@
       <c r="AC76" s="10"/>
       <c r="AD76" s="12"/>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:30" hidden="1">
       <c r="A77" s="9" t="s">
         <v>560</v>
       </c>
@@ -18857,7 +18864,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:30" hidden="1">
       <c r="A78" s="9" t="s">
         <v>569</v>
       </c>
@@ -18949,7 +18956,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="79" spans="1:30">
+    <row r="79" spans="1:30" hidden="1">
       <c r="A79" s="9" t="s">
         <v>581</v>
       </c>
@@ -19041,7 +19048,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:30" hidden="1">
       <c r="A80" s="9" t="s">
         <v>591</v>
       </c>
@@ -19133,7 +19140,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:30" hidden="1">
       <c r="A81" s="9" t="s">
         <v>599</v>
       </c>
@@ -19265,7 +19272,7 @@
       <c r="AC82" s="10"/>
       <c r="AD82" s="12"/>
     </row>
-    <row r="83" spans="1:30">
+    <row r="83" spans="1:30" hidden="1">
       <c r="A83" s="9" t="s">
         <v>606</v>
       </c>
@@ -19357,7 +19364,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="84" spans="1:30">
+    <row r="84" spans="1:30" hidden="1">
       <c r="A84" s="9" t="s">
         <v>618</v>
       </c>
@@ -19449,7 +19456,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="85" spans="1:30">
+    <row r="85" spans="1:30" hidden="1">
       <c r="A85" s="9" t="s">
         <v>626</v>
       </c>
@@ -19515,7 +19522,7 @@
       <c r="AC85" s="10"/>
       <c r="AD85" s="12"/>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:30" hidden="1">
       <c r="A86" s="9" t="s">
         <v>631</v>
       </c>
@@ -19607,7 +19614,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:30">
+    <row r="87" spans="1:30" hidden="1">
       <c r="A87" s="9" t="s">
         <v>636</v>
       </c>
@@ -19699,7 +19706,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:30" hidden="1">
       <c r="A88" s="9" t="s">
         <v>644</v>
       </c>
@@ -19765,7 +19772,7 @@
       <c r="AC88" s="10"/>
       <c r="AD88" s="12"/>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:30" hidden="1">
       <c r="A89" s="9" t="s">
         <v>648</v>
       </c>
@@ -19857,7 +19864,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:30">
+    <row r="90" spans="1:30" hidden="1">
       <c r="A90" s="9" t="s">
         <v>658</v>
       </c>
@@ -19949,7 +19956,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:30">
+    <row r="91" spans="1:30" hidden="1">
       <c r="A91" s="9" t="s">
         <v>665</v>
       </c>
@@ -20041,7 +20048,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:30" hidden="1">
       <c r="A92" s="9" t="s">
         <v>672</v>
       </c>
@@ -20107,7 +20114,7 @@
       <c r="AC92" s="10"/>
       <c r="AD92" s="12"/>
     </row>
-    <row r="93" spans="1:30">
+    <row r="93" spans="1:30" hidden="1">
       <c r="A93" s="9" t="s">
         <v>676</v>
       </c>
@@ -20173,7 +20180,7 @@
       <c r="AC93" s="10"/>
       <c r="AD93" s="12"/>
     </row>
-    <row r="94" spans="1:30">
+    <row r="94" spans="1:30" hidden="1">
       <c r="A94" s="9" t="s">
         <v>680</v>
       </c>
@@ -20265,7 +20272,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:30" hidden="1">
       <c r="A95" s="9" t="s">
         <v>685</v>
       </c>
@@ -20357,7 +20364,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:30">
+    <row r="96" spans="1:30" hidden="1">
       <c r="A96" s="9" t="s">
         <v>689</v>
       </c>
@@ -20449,7 +20456,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="97" spans="1:30">
+    <row r="97" spans="1:30" hidden="1">
       <c r="A97" s="9" t="s">
         <v>699</v>
       </c>
@@ -20515,7 +20522,7 @@
       <c r="AC97" s="10"/>
       <c r="AD97" s="12"/>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:30" hidden="1">
       <c r="A98" s="9" t="s">
         <v>704</v>
       </c>
@@ -20607,7 +20614,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:30" hidden="1">
       <c r="A99" s="9" t="s">
         <v>714</v>
       </c>
@@ -20699,7 +20706,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:30" hidden="1">
       <c r="A100" s="9" t="s">
         <v>722</v>
       </c>
@@ -20765,7 +20772,7 @@
       <c r="AC100" s="10"/>
       <c r="AD100" s="12"/>
     </row>
-    <row r="101" spans="1:30">
+    <row r="101" spans="1:30" hidden="1">
       <c r="A101" s="9" t="s">
         <v>727</v>
       </c>
@@ -20857,7 +20864,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:30" hidden="1">
       <c r="A102" s="9" t="s">
         <v>733</v>
       </c>
@@ -20923,7 +20930,7 @@
       <c r="AC102" s="10"/>
       <c r="AD102" s="12"/>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:30" hidden="1">
       <c r="A103" s="9" t="s">
         <v>738</v>
       </c>
@@ -21015,7 +21022,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:30" hidden="1">
       <c r="A104" s="9" t="s">
         <v>743</v>
       </c>
@@ -21107,7 +21114,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:30" hidden="1">
       <c r="A105" s="9" t="s">
         <v>753</v>
       </c>
@@ -21199,7 +21206,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="106" spans="1:30">
+    <row r="106" spans="1:30" hidden="1">
       <c r="A106" s="9" t="s">
         <v>761</v>
       </c>
@@ -21291,7 +21298,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:30" hidden="1">
       <c r="A107" s="9" t="s">
         <v>767</v>
       </c>
@@ -21357,7 +21364,7 @@
       <c r="AC107" s="10"/>
       <c r="AD107" s="12"/>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:30" hidden="1">
       <c r="A108" s="9" t="s">
         <v>771</v>
       </c>
@@ -21423,7 +21430,7 @@
       <c r="AC108" s="10"/>
       <c r="AD108" s="12"/>
     </row>
-    <row r="109" spans="1:30">
+    <row r="109" spans="1:30" hidden="1">
       <c r="A109" s="9" t="s">
         <v>775</v>
       </c>
@@ -21515,7 +21522,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:30" hidden="1">
       <c r="A110" s="9" t="s">
         <v>780</v>
       </c>
@@ -21607,7 +21614,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:30" hidden="1">
       <c r="A111" s="9" t="s">
         <v>785</v>
       </c>
@@ -21765,7 +21772,7 @@
       <c r="AC112" s="10"/>
       <c r="AD112" s="12"/>
     </row>
-    <row r="113" spans="1:30">
+    <row r="113" spans="1:30" hidden="1">
       <c r="A113" s="9" t="s">
         <v>793</v>
       </c>
@@ -21831,7 +21838,7 @@
       <c r="AC113" s="10"/>
       <c r="AD113" s="12"/>
     </row>
-    <row r="114" spans="1:30">
+    <row r="114" spans="1:30" hidden="1">
       <c r="A114" s="9" t="s">
         <v>798</v>
       </c>
@@ -21923,7 +21930,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:30">
+    <row r="115" spans="1:30" hidden="1">
       <c r="A115" s="9" t="s">
         <v>803</v>
       </c>
@@ -21989,7 +21996,7 @@
       <c r="AC115" s="10"/>
       <c r="AD115" s="12"/>
     </row>
-    <row r="116" spans="1:30">
+    <row r="116" spans="1:30" hidden="1">
       <c r="A116" s="9" t="s">
         <v>808</v>
       </c>
@@ -22081,7 +22088,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="117" spans="1:30">
+    <row r="117" spans="1:30" hidden="1">
       <c r="A117" s="9" t="s">
         <v>817</v>
       </c>
@@ -22173,7 +22180,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="118" spans="1:30">
+    <row r="118" spans="1:30" hidden="1">
       <c r="A118" s="9" t="s">
         <v>827</v>
       </c>
@@ -22265,7 +22272,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="119" spans="1:30">
+    <row r="119" spans="1:30" hidden="1">
       <c r="A119" s="9" t="s">
         <v>832</v>
       </c>
@@ -22357,7 +22364,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="120" spans="1:30">
+    <row r="120" spans="1:30" hidden="1">
       <c r="A120" s="9" t="s">
         <v>843</v>
       </c>
@@ -22449,7 +22456,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="1:30">
+    <row r="121" spans="1:30" hidden="1">
       <c r="A121" s="9" t="s">
         <v>847</v>
       </c>
@@ -22515,7 +22522,7 @@
       <c r="AC121" s="10"/>
       <c r="AD121" s="12"/>
     </row>
-    <row r="122" spans="1:30">
+    <row r="122" spans="1:30" hidden="1">
       <c r="A122" s="9" t="s">
         <v>852</v>
       </c>
@@ -22581,7 +22588,7 @@
       <c r="AC122" s="10"/>
       <c r="AD122" s="12"/>
     </row>
-    <row r="123" spans="1:30">
+    <row r="123" spans="1:30" hidden="1">
       <c r="A123" s="9" t="s">
         <v>857</v>
       </c>
@@ -22673,7 +22680,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="1:30">
+    <row r="124" spans="1:30" hidden="1">
       <c r="A124" s="9" t="s">
         <v>862</v>
       </c>
@@ -22739,7 +22746,7 @@
       <c r="AC124" s="10"/>
       <c r="AD124" s="12"/>
     </row>
-    <row r="125" spans="1:30">
+    <row r="125" spans="1:30" hidden="1">
       <c r="A125" s="9" t="s">
         <v>867</v>
       </c>
@@ -22805,7 +22812,7 @@
       <c r="AC125" s="10"/>
       <c r="AD125" s="12"/>
     </row>
-    <row r="126" spans="1:30">
+    <row r="126" spans="1:30" hidden="1">
       <c r="A126" s="9" t="s">
         <v>873</v>
       </c>
@@ -22897,7 +22904,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:30">
+    <row r="127" spans="1:30" hidden="1">
       <c r="A127" s="9" t="s">
         <v>878</v>
       </c>
@@ -22963,7 +22970,7 @@
       <c r="AC127" s="10"/>
       <c r="AD127" s="12"/>
     </row>
-    <row r="128" spans="1:30">
+    <row r="128" spans="1:30" hidden="1">
       <c r="A128" s="9" t="s">
         <v>885</v>
       </c>
@@ -23055,7 +23062,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="129" spans="1:30">
+    <row r="129" spans="1:30" hidden="1">
       <c r="A129" s="9" t="s">
         <v>894</v>
       </c>
@@ -23121,7 +23128,7 @@
       <c r="AC129" s="10"/>
       <c r="AD129" s="12"/>
     </row>
-    <row r="130" spans="1:30">
+    <row r="130" spans="1:30" hidden="1">
       <c r="A130" s="9" t="s">
         <v>898</v>
       </c>
@@ -23187,7 +23194,7 @@
       <c r="AC130" s="10"/>
       <c r="AD130" s="12"/>
     </row>
-    <row r="131" spans="1:30">
+    <row r="131" spans="1:30" hidden="1">
       <c r="A131" s="9" t="s">
         <v>903</v>
       </c>
@@ -23279,7 +23286,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="132" spans="1:30">
+    <row r="132" spans="1:30" hidden="1">
       <c r="A132" s="9" t="s">
         <v>911</v>
       </c>
@@ -23371,7 +23378,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="133" spans="1:30">
+    <row r="133" spans="1:30" hidden="1">
       <c r="A133" s="9" t="s">
         <v>916</v>
       </c>
@@ -23463,7 +23470,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="134" spans="1:30">
+    <row r="134" spans="1:30" hidden="1">
       <c r="A134" s="9" t="s">
         <v>920</v>
       </c>
@@ -23555,7 +23562,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="135" spans="1:30">
+    <row r="135" spans="1:30" hidden="1">
       <c r="A135" s="9" t="s">
         <v>923</v>
       </c>
@@ -23621,7 +23628,7 @@
       <c r="AC135" s="10"/>
       <c r="AD135" s="12"/>
     </row>
-    <row r="136" spans="1:30">
+    <row r="136" spans="1:30" hidden="1">
       <c r="A136" s="9" t="s">
         <v>927</v>
       </c>
@@ -23713,7 +23720,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="1:30">
+    <row r="137" spans="1:30" hidden="1">
       <c r="A137" s="9" t="s">
         <v>931</v>
       </c>
@@ -23805,7 +23812,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:30">
+    <row r="138" spans="1:30" hidden="1">
       <c r="A138" s="9" t="s">
         <v>935</v>
       </c>
@@ -23897,7 +23904,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="139" spans="1:30">
+    <row r="139" spans="1:30" hidden="1">
       <c r="A139" s="9" t="s">
         <v>939</v>
       </c>
@@ -23963,7 +23970,7 @@
       <c r="AC139" s="10"/>
       <c r="AD139" s="12"/>
     </row>
-    <row r="140" spans="1:30">
+    <row r="140" spans="1:30" hidden="1">
       <c r="A140" s="9" t="s">
         <v>944</v>
       </c>
@@ -24029,7 +24036,7 @@
       <c r="AC140" s="10"/>
       <c r="AD140" s="12"/>
     </row>
-    <row r="141" spans="1:30">
+    <row r="141" spans="1:30" hidden="1">
       <c r="A141" s="9" t="s">
         <v>948</v>
       </c>
@@ -24121,7 +24128,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="142" spans="1:30">
+    <row r="142" spans="1:30" hidden="1">
       <c r="A142" s="9" t="s">
         <v>953</v>
       </c>
@@ -24213,7 +24220,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="143" spans="1:30">
+    <row r="143" spans="1:30" hidden="1">
       <c r="A143" s="9" t="s">
         <v>958</v>
       </c>
@@ -24345,7 +24352,7 @@
       <c r="AC144" s="10"/>
       <c r="AD144" s="12"/>
     </row>
-    <row r="145" spans="1:30">
+    <row r="145" spans="1:30" hidden="1">
       <c r="A145" s="9" t="s">
         <v>966</v>
       </c>
@@ -24437,7 +24444,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="146" spans="1:30">
+    <row r="146" spans="1:30" hidden="1">
       <c r="A146" s="9" t="s">
         <v>974</v>
       </c>
@@ -24529,7 +24536,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="147" spans="1:30">
+    <row r="147" spans="1:30" hidden="1">
       <c r="A147" s="9" t="s">
         <v>983</v>
       </c>
@@ -24621,7 +24628,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="148" spans="1:30">
+    <row r="148" spans="1:30" hidden="1">
       <c r="A148" s="9" t="s">
         <v>991</v>
       </c>
@@ -24713,7 +24720,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="149" spans="1:30">
+    <row r="149" spans="1:30" hidden="1">
       <c r="A149" s="9" t="s">
         <v>1000</v>
       </c>
@@ -24779,7 +24786,7 @@
       <c r="AC149" s="10"/>
       <c r="AD149" s="12"/>
     </row>
-    <row r="150" spans="1:30">
+    <row r="150" spans="1:30" hidden="1">
       <c r="A150" s="9" t="s">
         <v>1004</v>
       </c>
@@ -24845,7 +24852,7 @@
       <c r="AC150" s="10"/>
       <c r="AD150" s="12"/>
     </row>
-    <row r="151" spans="1:30">
+    <row r="151" spans="1:30" hidden="1">
       <c r="A151" s="9" t="s">
         <v>1009</v>
       </c>
@@ -24911,7 +24918,7 @@
       <c r="AC151" s="10"/>
       <c r="AD151" s="12"/>
     </row>
-    <row r="152" spans="1:30">
+    <row r="152" spans="1:30" hidden="1">
       <c r="A152" s="9" t="s">
         <v>1013</v>
       </c>
@@ -24977,7 +24984,7 @@
       <c r="AC152" s="10"/>
       <c r="AD152" s="12"/>
     </row>
-    <row r="153" spans="1:30">
+    <row r="153" spans="1:30" hidden="1">
       <c r="A153" s="9" t="s">
         <v>1015</v>
       </c>
@@ -25201,7 +25208,7 @@
       <c r="AC155" s="10"/>
       <c r="AD155" s="12"/>
     </row>
-    <row r="156" spans="1:30">
+    <row r="156" spans="1:30" hidden="1">
       <c r="A156" s="9" t="s">
         <v>1031</v>
       </c>
@@ -25267,7 +25274,7 @@
       <c r="AC156" s="10"/>
       <c r="AD156" s="12"/>
     </row>
-    <row r="157" spans="1:30">
+    <row r="157" spans="1:30" hidden="1">
       <c r="A157" s="9" t="s">
         <v>1035</v>
       </c>
@@ -25425,7 +25432,7 @@
       <c r="AC158" s="10"/>
       <c r="AD158" s="12"/>
     </row>
-    <row r="159" spans="1:30">
+    <row r="159" spans="1:30" hidden="1">
       <c r="A159" s="9" t="s">
         <v>1049</v>
       </c>
@@ -25517,7 +25524,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="160" spans="1:30">
+    <row r="160" spans="1:30" hidden="1">
       <c r="A160" s="9" t="s">
         <v>1057</v>
       </c>
@@ -25583,7 +25590,7 @@
       <c r="AC160" s="10"/>
       <c r="AD160" s="12"/>
     </row>
-    <row r="161" spans="1:30">
+    <row r="161" spans="1:30" hidden="1">
       <c r="A161" s="9" t="s">
         <v>1059</v>
       </c>
@@ -25649,7 +25656,7 @@
       <c r="AC161" s="10"/>
       <c r="AD161" s="12"/>
     </row>
-    <row r="162" spans="1:30">
+    <row r="162" spans="1:30" hidden="1">
       <c r="A162" s="9" t="s">
         <v>1061</v>
       </c>
@@ -25715,7 +25722,7 @@
       <c r="AC162" s="10"/>
       <c r="AD162" s="12"/>
     </row>
-    <row r="163" spans="1:30">
+    <row r="163" spans="1:30" hidden="1">
       <c r="A163" s="9" t="s">
         <v>1063</v>
       </c>
@@ -25807,7 +25814,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="164" spans="1:30">
+    <row r="164" spans="1:30" hidden="1">
       <c r="A164" s="9" t="s">
         <v>1067</v>
       </c>
@@ -25899,7 +25906,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="165" spans="1:30">
+    <row r="165" spans="1:30" hidden="1">
       <c r="A165" s="9" t="s">
         <v>1077</v>
       </c>
@@ -25991,7 +25998,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="166" spans="1:30">
+    <row r="166" spans="1:30" hidden="1">
       <c r="A166" s="9" t="s">
         <v>1082</v>
       </c>
@@ -26083,7 +26090,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="167" spans="1:30">
+    <row r="167" spans="1:30" hidden="1">
       <c r="A167" s="9" t="s">
         <v>1090</v>
       </c>
@@ -26149,7 +26156,7 @@
       <c r="AC167" s="10"/>
       <c r="AD167" s="12"/>
     </row>
-    <row r="168" spans="1:30">
+    <row r="168" spans="1:30" hidden="1">
       <c r="A168" s="9" t="s">
         <v>1094</v>
       </c>
@@ -26215,7 +26222,7 @@
       <c r="AC168" s="10"/>
       <c r="AD168" s="12"/>
     </row>
-    <row r="169" spans="1:30">
+    <row r="169" spans="1:30" hidden="1">
       <c r="A169" s="9" t="s">
         <v>1098</v>
       </c>
@@ -26281,7 +26288,7 @@
       <c r="AC169" s="10"/>
       <c r="AD169" s="12"/>
     </row>
-    <row r="170" spans="1:30">
+    <row r="170" spans="1:30" hidden="1">
       <c r="A170" s="9" t="s">
         <v>1100</v>
       </c>
@@ -26373,7 +26380,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="171" spans="1:30">
+    <row r="171" spans="1:30" hidden="1">
       <c r="A171" s="9" t="s">
         <v>1108</v>
       </c>
@@ -26465,7 +26472,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="172" spans="1:30">
+    <row r="172" spans="1:30" hidden="1">
       <c r="A172" s="9" t="s">
         <v>1112</v>
       </c>
@@ -26557,7 +26564,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="173" spans="1:30">
+    <row r="173" spans="1:30" hidden="1">
       <c r="A173" s="9" t="s">
         <v>1121</v>
       </c>
@@ -26623,7 +26630,7 @@
       <c r="AC173" s="10"/>
       <c r="AD173" s="12"/>
     </row>
-    <row r="174" spans="1:30">
+    <row r="174" spans="1:30" hidden="1">
       <c r="A174" s="9" t="s">
         <v>1123</v>
       </c>
@@ -26689,7 +26696,7 @@
       <c r="AC174" s="10"/>
       <c r="AD174" s="12"/>
     </row>
-    <row r="175" spans="1:30">
+    <row r="175" spans="1:30" hidden="1">
       <c r="A175" s="9" t="s">
         <v>1128</v>
       </c>
@@ -26781,7 +26788,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="176" spans="1:30">
+    <row r="176" spans="1:30" hidden="1">
       <c r="A176" s="9" t="s">
         <v>1134</v>
       </c>
@@ -26873,7 +26880,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="177" spans="1:30">
+    <row r="177" spans="1:30" hidden="1">
       <c r="A177" s="9" t="s">
         <v>1144</v>
       </c>
@@ -26965,7 +26972,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="178" spans="1:30">
+    <row r="178" spans="1:30" hidden="1">
       <c r="A178" s="9" t="s">
         <v>1148</v>
       </c>
@@ -27031,7 +27038,7 @@
       <c r="AC178" s="10"/>
       <c r="AD178" s="12"/>
     </row>
-    <row r="179" spans="1:30">
+    <row r="179" spans="1:30" hidden="1">
       <c r="A179" s="9" t="s">
         <v>1154</v>
       </c>
@@ -27097,7 +27104,7 @@
       <c r="AC179" s="10"/>
       <c r="AD179" s="12"/>
     </row>
-    <row r="180" spans="1:30">
+    <row r="180" spans="1:30" hidden="1">
       <c r="A180" s="9" t="s">
         <v>1159</v>
       </c>
@@ -27163,7 +27170,7 @@
       <c r="AC180" s="10"/>
       <c r="AD180" s="12"/>
     </row>
-    <row r="181" spans="1:30">
+    <row r="181" spans="1:30" hidden="1">
       <c r="A181" s="9" t="s">
         <v>1164</v>
       </c>
@@ -27229,7 +27236,7 @@
       <c r="AC181" s="10"/>
       <c r="AD181" s="12"/>
     </row>
-    <row r="182" spans="1:30">
+    <row r="182" spans="1:30" hidden="1">
       <c r="A182" s="9" t="s">
         <v>1169</v>
       </c>
@@ -27295,7 +27302,7 @@
       <c r="AC182" s="10"/>
       <c r="AD182" s="12"/>
     </row>
-    <row r="183" spans="1:30">
+    <row r="183" spans="1:30" hidden="1">
       <c r="A183" s="9" t="s">
         <v>1172</v>
       </c>
@@ -27361,7 +27368,7 @@
       <c r="AC183" s="10"/>
       <c r="AD183" s="12"/>
     </row>
-    <row r="184" spans="1:30">
+    <row r="184" spans="1:30" hidden="1">
       <c r="A184" s="9" t="s">
         <v>1178</v>
       </c>
@@ -27427,7 +27434,7 @@
       <c r="AC184" s="10"/>
       <c r="AD184" s="12"/>
     </row>
-    <row r="185" spans="1:30">
+    <row r="185" spans="1:30" hidden="1">
       <c r="A185" s="9" t="s">
         <v>1181</v>
       </c>
@@ -27493,7 +27500,7 @@
       <c r="AC185" s="10"/>
       <c r="AD185" s="12"/>
     </row>
-    <row r="186" spans="1:30">
+    <row r="186" spans="1:30" hidden="1">
       <c r="A186" s="9" t="s">
         <v>1186</v>
       </c>
@@ -27585,7 +27592,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:30">
+    <row r="187" spans="1:30" hidden="1">
       <c r="A187" s="9" t="s">
         <v>1191</v>
       </c>
@@ -27677,7 +27684,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="188" spans="1:30">
+    <row r="188" spans="1:30" hidden="1">
       <c r="A188" s="9" t="s">
         <v>1199</v>
       </c>
@@ -27769,7 +27776,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="189" spans="1:30">
+    <row r="189" spans="1:30" hidden="1">
       <c r="A189" s="9" t="s">
         <v>1204</v>
       </c>
@@ -27861,7 +27868,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="190" spans="1:30">
+    <row r="190" spans="1:30" hidden="1">
       <c r="A190" s="9" t="s">
         <v>1213</v>
       </c>
@@ -27927,7 +27934,7 @@
       <c r="AC190" s="10"/>
       <c r="AD190" s="12"/>
     </row>
-    <row r="191" spans="1:30">
+    <row r="191" spans="1:30" hidden="1">
       <c r="A191" s="9" t="s">
         <v>1217</v>
       </c>
@@ -28019,7 +28026,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="192" spans="1:30">
+    <row r="192" spans="1:30" hidden="1">
       <c r="A192" s="9" t="s">
         <v>1219</v>
       </c>
@@ -28111,7 +28118,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="193" spans="1:30">
+    <row r="193" spans="1:30" hidden="1">
       <c r="A193" s="9" t="s">
         <v>1230</v>
       </c>
@@ -28177,7 +28184,7 @@
       <c r="AC193" s="10"/>
       <c r="AD193" s="12"/>
     </row>
-    <row r="194" spans="1:30">
+    <row r="194" spans="1:30" hidden="1">
       <c r="A194" s="9" t="s">
         <v>1235</v>
       </c>
@@ -28269,7 +28276,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="195" spans="1:30">
+    <row r="195" spans="1:30" hidden="1">
       <c r="A195" s="9" t="s">
         <v>1242</v>
       </c>
@@ -28427,7 +28434,7 @@
       <c r="AC196" s="10"/>
       <c r="AD196" s="12"/>
     </row>
-    <row r="197" spans="1:30">
+    <row r="197" spans="1:30" hidden="1">
       <c r="A197" s="9" t="s">
         <v>1255</v>
       </c>
@@ -28519,7 +28526,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="198" spans="1:30">
+    <row r="198" spans="1:30" hidden="1">
       <c r="A198" s="9" t="s">
         <v>1265</v>
       </c>
@@ -28585,7 +28592,7 @@
       <c r="AC198" s="10"/>
       <c r="AD198" s="12"/>
     </row>
-    <row r="199" spans="1:30">
+    <row r="199" spans="1:30" hidden="1">
       <c r="A199" s="9" t="s">
         <v>1269</v>
       </c>
@@ -28677,7 +28684,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="200" spans="1:30">
+    <row r="200" spans="1:30" hidden="1">
       <c r="A200" s="9" t="s">
         <v>1279</v>
       </c>
@@ -28809,7 +28816,7 @@
       <c r="AC201" s="10"/>
       <c r="AD201" s="12"/>
     </row>
-    <row r="202" spans="1:30">
+    <row r="202" spans="1:30" hidden="1">
       <c r="A202" s="9" t="s">
         <v>1283</v>
       </c>
@@ -28901,7 +28908,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="203" spans="1:30">
+    <row r="203" spans="1:30" hidden="1">
       <c r="A203" s="9" t="s">
         <v>1287</v>
       </c>
@@ -28993,7 +29000,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="204" spans="1:30">
+    <row r="204" spans="1:30" hidden="1">
       <c r="A204" s="9" t="s">
         <v>1298</v>
       </c>
@@ -29085,7 +29092,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="205" spans="1:30">
+    <row r="205" spans="1:30" hidden="1">
       <c r="A205" s="9" t="s">
         <v>1306</v>
       </c>
@@ -29151,7 +29158,7 @@
       <c r="AC205" s="10"/>
       <c r="AD205" s="12"/>
     </row>
-    <row r="206" spans="1:30">
+    <row r="206" spans="1:30" hidden="1">
       <c r="A206" s="9" t="s">
         <v>1312</v>
       </c>
@@ -29243,7 +29250,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="207" spans="1:30">
+    <row r="207" spans="1:30" hidden="1">
       <c r="A207" s="9" t="s">
         <v>1323</v>
       </c>
@@ -29309,7 +29316,7 @@
       <c r="AC207" s="10"/>
       <c r="AD207" s="12"/>
     </row>
-    <row r="208" spans="1:30">
+    <row r="208" spans="1:30" hidden="1">
       <c r="A208" s="9" t="s">
         <v>1328</v>
       </c>
@@ -29401,7 +29408,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="209" spans="1:30">
+    <row r="209" spans="1:30" hidden="1">
       <c r="A209" s="9" t="s">
         <v>1335</v>
       </c>
@@ -29467,7 +29474,7 @@
       <c r="AC209" s="10"/>
       <c r="AD209" s="12"/>
     </row>
-    <row r="210" spans="1:30">
+    <row r="210" spans="1:30" hidden="1">
       <c r="A210" s="9" t="s">
         <v>1339</v>
       </c>
@@ -29559,7 +29566,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="211" spans="1:30">
+    <row r="211" spans="1:30" hidden="1">
       <c r="A211" s="9" t="s">
         <v>1348</v>
       </c>
@@ -29651,7 +29658,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="212" spans="1:30">
+    <row r="212" spans="1:30" hidden="1">
       <c r="A212" s="9" t="s">
         <v>1357</v>
       </c>
@@ -29743,7 +29750,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="213" spans="1:30">
+    <row r="213" spans="1:30" hidden="1">
       <c r="A213" s="9" t="s">
         <v>1367</v>
       </c>
@@ -29901,7 +29908,7 @@
       <c r="AC214" s="10"/>
       <c r="AD214" s="12"/>
     </row>
-    <row r="215" spans="1:30">
+    <row r="215" spans="1:30" hidden="1">
       <c r="A215" s="9" t="s">
         <v>1381</v>
       </c>
@@ -29967,7 +29974,7 @@
       <c r="AC215" s="10"/>
       <c r="AD215" s="12"/>
     </row>
-    <row r="216" spans="1:30">
+    <row r="216" spans="1:30" hidden="1">
       <c r="A216" s="9" t="s">
         <v>1385</v>
       </c>
@@ -30059,7 +30066,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="217" spans="1:30">
+    <row r="217" spans="1:30" hidden="1">
       <c r="A217" s="9" t="s">
         <v>1393</v>
       </c>
@@ -30151,7 +30158,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="218" spans="1:30">
+    <row r="218" spans="1:30" hidden="1">
       <c r="A218" s="9" t="s">
         <v>1395</v>
       </c>
@@ -30243,7 +30250,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="219" spans="1:30">
+    <row r="219" spans="1:30" hidden="1">
       <c r="A219" s="9" t="s">
         <v>1401</v>
       </c>
@@ -30309,7 +30316,7 @@
       <c r="AC219" s="10"/>
       <c r="AD219" s="12"/>
     </row>
-    <row r="220" spans="1:30">
+    <row r="220" spans="1:30" hidden="1">
       <c r="A220" s="9" t="s">
         <v>1406</v>
       </c>
@@ -30375,7 +30382,7 @@
       <c r="AC220" s="10"/>
       <c r="AD220" s="12"/>
     </row>
-    <row r="221" spans="1:30">
+    <row r="221" spans="1:30" hidden="1">
       <c r="A221" s="9" t="s">
         <v>1411</v>
       </c>
@@ -30441,7 +30448,7 @@
       <c r="AC221" s="10"/>
       <c r="AD221" s="12"/>
     </row>
-    <row r="222" spans="1:30">
+    <row r="222" spans="1:30" hidden="1">
       <c r="A222" s="9" t="s">
         <v>1415</v>
       </c>
@@ -30507,7 +30514,7 @@
       <c r="AC222" s="10"/>
       <c r="AD222" s="12"/>
     </row>
-    <row r="223" spans="1:30">
+    <row r="223" spans="1:30" hidden="1">
       <c r="A223" s="9" t="s">
         <v>1419</v>
       </c>
@@ -30573,7 +30580,7 @@
       <c r="AC223" s="10"/>
       <c r="AD223" s="12"/>
     </row>
-    <row r="224" spans="1:30">
+    <row r="224" spans="1:30" hidden="1">
       <c r="A224" s="9" t="s">
         <v>1424</v>
       </c>
@@ -30665,7 +30672,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="225" spans="1:30">
+    <row r="225" spans="1:30" hidden="1">
       <c r="A225" s="9" t="s">
         <v>1432</v>
       </c>
@@ -30823,7 +30830,7 @@
       <c r="AC226" s="10"/>
       <c r="AD226" s="12"/>
     </row>
-    <row r="227" spans="1:30">
+    <row r="227" spans="1:30" hidden="1">
       <c r="A227" s="9" t="s">
         <v>1440</v>
       </c>
@@ -30889,7 +30896,7 @@
       <c r="AC227" s="10"/>
       <c r="AD227" s="12"/>
     </row>
-    <row r="228" spans="1:30">
+    <row r="228" spans="1:30" hidden="1">
       <c r="A228" s="9" t="s">
         <v>1445</v>
       </c>
@@ -30981,7 +30988,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="229" spans="1:30">
+    <row r="229" spans="1:30" hidden="1">
       <c r="A229" s="9" t="s">
         <v>1455</v>
       </c>
@@ -31073,7 +31080,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="230" spans="1:30">
+    <row r="230" spans="1:30" hidden="1">
       <c r="A230" s="9" t="s">
         <v>1467</v>
       </c>
@@ -31139,7 +31146,7 @@
       <c r="AC230" s="10"/>
       <c r="AD230" s="12"/>
     </row>
-    <row r="231" spans="1:30">
+    <row r="231" spans="1:30" hidden="1">
       <c r="A231" s="9" t="s">
         <v>1469</v>
       </c>
@@ -31231,7 +31238,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="232" spans="1:30">
+    <row r="232" spans="1:30" hidden="1">
       <c r="A232" s="9" t="s">
         <v>1478</v>
       </c>
@@ -31297,7 +31304,7 @@
       <c r="AC232" s="10"/>
       <c r="AD232" s="12"/>
     </row>
-    <row r="233" spans="1:30">
+    <row r="233" spans="1:30" hidden="1">
       <c r="A233" s="9" t="s">
         <v>1482</v>
       </c>
@@ -31363,7 +31370,7 @@
       <c r="AC233" s="10"/>
       <c r="AD233" s="12"/>
     </row>
-    <row r="234" spans="1:30">
+    <row r="234" spans="1:30" hidden="1">
       <c r="A234" s="9" t="s">
         <v>1487</v>
       </c>
@@ -31429,7 +31436,7 @@
       <c r="AC234" s="10"/>
       <c r="AD234" s="12"/>
     </row>
-    <row r="235" spans="1:30">
+    <row r="235" spans="1:30" hidden="1">
       <c r="A235" s="9" t="s">
         <v>1490</v>
       </c>
@@ -31521,7 +31528,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="236" spans="1:30">
+    <row r="236" spans="1:30" hidden="1">
       <c r="A236" s="9" t="s">
         <v>1498</v>
       </c>
@@ -31613,7 +31620,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="237" spans="1:30">
+    <row r="237" spans="1:30" hidden="1">
       <c r="A237" s="9" t="s">
         <v>1502</v>
       </c>
@@ -31679,7 +31686,7 @@
       <c r="AC237" s="10"/>
       <c r="AD237" s="12"/>
     </row>
-    <row r="238" spans="1:30">
+    <row r="238" spans="1:30" hidden="1">
       <c r="A238" s="9" t="s">
         <v>1509</v>
       </c>
@@ -31745,7 +31752,7 @@
       <c r="AC238" s="10"/>
       <c r="AD238" s="12"/>
     </row>
-    <row r="239" spans="1:30">
+    <row r="239" spans="1:30" hidden="1">
       <c r="A239" s="9" t="s">
         <v>1514</v>
       </c>
@@ -31837,7 +31844,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="240" spans="1:30">
+    <row r="240" spans="1:30" hidden="1">
       <c r="A240" s="9" t="s">
         <v>1522</v>
       </c>
@@ -31903,7 +31910,7 @@
       <c r="AC240" s="10"/>
       <c r="AD240" s="12"/>
     </row>
-    <row r="241" spans="1:30">
+    <row r="241" spans="1:30" hidden="1">
       <c r="A241" s="9" t="s">
         <v>1526</v>
       </c>
@@ -31995,7 +32002,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="242" spans="1:30">
+    <row r="242" spans="1:30" hidden="1">
       <c r="A242" s="9" t="s">
         <v>1536</v>
       </c>
@@ -32087,7 +32094,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="243" spans="1:30">
+    <row r="243" spans="1:30" hidden="1">
       <c r="A243" s="9" t="s">
         <v>1542</v>
       </c>
@@ -32179,7 +32186,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="244" spans="1:30">
+    <row r="244" spans="1:30" hidden="1">
       <c r="A244" s="9" t="s">
         <v>1548</v>
       </c>
@@ -32245,7 +32252,7 @@
       <c r="AC244" s="10"/>
       <c r="AD244" s="12"/>
     </row>
-    <row r="245" spans="1:30">
+    <row r="245" spans="1:30" hidden="1">
       <c r="A245" s="9" t="s">
         <v>1553</v>
       </c>
@@ -32311,7 +32318,7 @@
       <c r="AC245" s="10"/>
       <c r="AD245" s="12"/>
     </row>
-    <row r="246" spans="1:30">
+    <row r="246" spans="1:30" hidden="1">
       <c r="A246" s="9" t="s">
         <v>1558</v>
       </c>
@@ -32403,7 +32410,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="247" spans="1:30">
+    <row r="247" spans="1:30" hidden="1">
       <c r="A247" s="9" t="s">
         <v>1564</v>
       </c>
@@ -32469,7 +32476,7 @@
       <c r="AC247" s="10"/>
       <c r="AD247" s="12"/>
     </row>
-    <row r="248" spans="1:30">
+    <row r="248" spans="1:30" hidden="1">
       <c r="A248" s="9" t="s">
         <v>1567</v>
       </c>
@@ -32535,7 +32542,7 @@
       <c r="AC248" s="10"/>
       <c r="AD248" s="12"/>
     </row>
-    <row r="249" spans="1:30">
+    <row r="249" spans="1:30" hidden="1">
       <c r="A249" s="9" t="s">
         <v>1572</v>
       </c>
@@ -32601,7 +32608,7 @@
       <c r="AC249" s="10"/>
       <c r="AD249" s="12"/>
     </row>
-    <row r="250" spans="1:30">
+    <row r="250" spans="1:30" hidden="1">
       <c r="A250" s="9" t="s">
         <v>1577</v>
       </c>
@@ -32693,7 +32700,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="251" spans="1:30">
+    <row r="251" spans="1:30" hidden="1">
       <c r="A251" s="9" t="s">
         <v>1586</v>
       </c>
@@ -32759,7 +32766,7 @@
       <c r="AC251" s="10"/>
       <c r="AD251" s="12"/>
     </row>
-    <row r="252" spans="1:30">
+    <row r="252" spans="1:30" hidden="1">
       <c r="A252" s="9" t="s">
         <v>1590</v>
       </c>
@@ -32825,7 +32832,7 @@
       <c r="AC252" s="10"/>
       <c r="AD252" s="12"/>
     </row>
-    <row r="253" spans="1:30">
+    <row r="253" spans="1:30" hidden="1">
       <c r="A253" s="9" t="s">
         <v>1592</v>
       </c>
@@ -32891,7 +32898,7 @@
       <c r="AC253" s="10"/>
       <c r="AD253" s="12"/>
     </row>
-    <row r="254" spans="1:30">
+    <row r="254" spans="1:30" hidden="1">
       <c r="A254" s="9" t="s">
         <v>1596</v>
       </c>
@@ -32983,7 +32990,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="255" spans="1:30">
+    <row r="255" spans="1:30" hidden="1">
       <c r="A255" s="9" t="s">
         <v>1601</v>
       </c>
@@ -33075,7 +33082,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="256" spans="1:30">
+    <row r="256" spans="1:30" hidden="1">
       <c r="A256" s="9" t="s">
         <v>1610</v>
       </c>
@@ -33167,7 +33174,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="257" spans="1:30">
+    <row r="257" spans="1:30" hidden="1">
       <c r="A257" s="9" t="s">
         <v>1620</v>
       </c>
@@ -33259,7 +33266,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="258" spans="1:30">
+    <row r="258" spans="1:30" hidden="1">
       <c r="A258" s="9" t="s">
         <v>1629</v>
       </c>
@@ -33351,7 +33358,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="259" spans="1:30">
+    <row r="259" spans="1:30" hidden="1">
       <c r="A259" s="9" t="s">
         <v>1640</v>
       </c>
@@ -33443,7 +33450,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="260" spans="1:30">
+    <row r="260" spans="1:30" hidden="1">
       <c r="A260" s="9" t="s">
         <v>1650</v>
       </c>
@@ -33535,7 +33542,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="261" spans="1:30">
+    <row r="261" spans="1:30" hidden="1">
       <c r="A261" s="9" t="s">
         <v>1655</v>
       </c>
@@ -33601,7 +33608,7 @@
       <c r="AC261" s="10"/>
       <c r="AD261" s="12"/>
     </row>
-    <row r="262" spans="1:30">
+    <row r="262" spans="1:30" hidden="1">
       <c r="A262" s="9" t="s">
         <v>1658</v>
       </c>
@@ -33693,7 +33700,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="263" spans="1:30">
+    <row r="263" spans="1:30" hidden="1">
       <c r="A263" s="9" t="s">
         <v>1663</v>
       </c>
@@ -33785,7 +33792,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="264" spans="1:30">
+    <row r="264" spans="1:30" hidden="1">
       <c r="A264" s="9" t="s">
         <v>1673</v>
       </c>
@@ -33851,7 +33858,7 @@
       <c r="AC264" s="10"/>
       <c r="AD264" s="12"/>
     </row>
-    <row r="265" spans="1:30">
+    <row r="265" spans="1:30" hidden="1">
       <c r="A265" s="9" t="s">
         <v>1678</v>
       </c>
@@ -33943,7 +33950,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="266" spans="1:30">
+    <row r="266" spans="1:30" hidden="1">
       <c r="A266" s="9" t="s">
         <v>1686</v>
       </c>
@@ -34035,7 +34042,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="267" spans="1:30">
+    <row r="267" spans="1:30" hidden="1">
       <c r="A267" s="9" t="s">
         <v>1698</v>
       </c>
@@ -34101,7 +34108,7 @@
       <c r="AC267" s="10"/>
       <c r="AD267" s="12"/>
     </row>
-    <row r="268" spans="1:30">
+    <row r="268" spans="1:30" hidden="1">
       <c r="A268" s="9" t="s">
         <v>1701</v>
       </c>
@@ -34167,7 +34174,7 @@
       <c r="AC268" s="10"/>
       <c r="AD268" s="12"/>
     </row>
-    <row r="269" spans="1:30">
+    <row r="269" spans="1:30" hidden="1">
       <c r="A269" s="9" t="s">
         <v>1705</v>
       </c>
@@ -34233,7 +34240,7 @@
       <c r="AC269" s="10"/>
       <c r="AD269" s="12"/>
     </row>
-    <row r="270" spans="1:30">
+    <row r="270" spans="1:30" hidden="1">
       <c r="A270" s="9" t="s">
         <v>1709</v>
       </c>
@@ -34325,7 +34332,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="271" spans="1:30">
+    <row r="271" spans="1:30" hidden="1">
       <c r="A271" s="9" t="s">
         <v>1719</v>
       </c>
@@ -34391,7 +34398,7 @@
       <c r="AC271" s="10"/>
       <c r="AD271" s="12"/>
     </row>
-    <row r="272" spans="1:30">
+    <row r="272" spans="1:30" hidden="1">
       <c r="A272" s="9" t="s">
         <v>1723</v>
       </c>
@@ -34457,7 +34464,7 @@
       <c r="AC272" s="10"/>
       <c r="AD272" s="12"/>
     </row>
-    <row r="273" spans="1:30">
+    <row r="273" spans="1:30" hidden="1">
       <c r="A273" s="9" t="s">
         <v>1728</v>
       </c>
@@ -34523,7 +34530,7 @@
       <c r="AC273" s="10"/>
       <c r="AD273" s="12"/>
     </row>
-    <row r="274" spans="1:30">
+    <row r="274" spans="1:30" hidden="1">
       <c r="A274" s="9" t="s">
         <v>1733</v>
       </c>
@@ -34589,7 +34596,7 @@
       <c r="AC274" s="10"/>
       <c r="AD274" s="12"/>
     </row>
-    <row r="275" spans="1:30">
+    <row r="275" spans="1:30" hidden="1">
       <c r="A275" s="9" t="s">
         <v>1737</v>
       </c>
@@ -34655,7 +34662,7 @@
       <c r="AC275" s="10"/>
       <c r="AD275" s="12"/>
     </row>
-    <row r="276" spans="1:30">
+    <row r="276" spans="1:30" hidden="1">
       <c r="A276" s="9" t="s">
         <v>1742</v>
       </c>
@@ -34747,7 +34754,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="277" spans="1:30">
+    <row r="277" spans="1:30" hidden="1">
       <c r="A277" s="9" t="s">
         <v>1748</v>
       </c>
@@ -34839,7 +34846,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="278" spans="1:30">
+    <row r="278" spans="1:30" hidden="1">
       <c r="A278" s="9" t="s">
         <v>1755</v>
       </c>
@@ -34931,7 +34938,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="279" spans="1:30">
+    <row r="279" spans="1:30" hidden="1">
       <c r="A279" s="9" t="s">
         <v>1760</v>
       </c>
@@ -35023,7 +35030,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="280" spans="1:30">
+    <row r="280" spans="1:30" hidden="1">
       <c r="A280" s="9" t="s">
         <v>1767</v>
       </c>
@@ -35115,7 +35122,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="281" spans="1:30">
+    <row r="281" spans="1:30" hidden="1">
       <c r="A281" s="9" t="s">
         <v>1770</v>
       </c>
@@ -35181,7 +35188,7 @@
       <c r="AC281" s="10"/>
       <c r="AD281" s="12"/>
     </row>
-    <row r="282" spans="1:30">
+    <row r="282" spans="1:30" hidden="1">
       <c r="A282" s="9" t="s">
         <v>1775</v>
       </c>
@@ -35273,7 +35280,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="283" spans="1:30">
+    <row r="283" spans="1:30" hidden="1">
       <c r="A283" s="9" t="s">
         <v>1785</v>
       </c>
@@ -35339,7 +35346,7 @@
       <c r="AC283" s="10"/>
       <c r="AD283" s="12"/>
     </row>
-    <row r="284" spans="1:30">
+    <row r="284" spans="1:30" hidden="1">
       <c r="A284" s="9" t="s">
         <v>1789</v>
       </c>
@@ -35405,7 +35412,7 @@
       <c r="AC284" s="10"/>
       <c r="AD284" s="12"/>
     </row>
-    <row r="285" spans="1:30">
+    <row r="285" spans="1:30" hidden="1">
       <c r="A285" s="9" t="s">
         <v>1794</v>
       </c>
@@ -35497,7 +35504,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="286" spans="1:30">
+    <row r="286" spans="1:30" hidden="1">
       <c r="A286" s="9" t="s">
         <v>1803</v>
       </c>
@@ -35563,7 +35570,7 @@
       <c r="AC286" s="10"/>
       <c r="AD286" s="12"/>
     </row>
-    <row r="287" spans="1:30">
+    <row r="287" spans="1:30" hidden="1">
       <c r="A287" s="9" t="s">
         <v>1805</v>
       </c>
@@ -35629,7 +35636,7 @@
       <c r="AC287" s="10"/>
       <c r="AD287" s="12"/>
     </row>
-    <row r="288" spans="1:30">
+    <row r="288" spans="1:30" hidden="1">
       <c r="A288" s="9" t="s">
         <v>1809</v>
       </c>
@@ -35695,7 +35702,7 @@
       <c r="AC288" s="10"/>
       <c r="AD288" s="12"/>
     </row>
-    <row r="289" spans="1:30">
+    <row r="289" spans="1:30" hidden="1">
       <c r="A289" s="9" t="s">
         <v>1812</v>
       </c>
@@ -35761,7 +35768,7 @@
       <c r="AC289" s="10"/>
       <c r="AD289" s="12"/>
     </row>
-    <row r="290" spans="1:30">
+    <row r="290" spans="1:30" hidden="1">
       <c r="A290" s="9" t="s">
         <v>1814</v>
       </c>
@@ -35853,7 +35860,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="291" spans="1:30">
+    <row r="291" spans="1:30" hidden="1">
       <c r="A291" s="9" t="s">
         <v>1820</v>
       </c>
@@ -35919,7 +35926,7 @@
       <c r="AC291" s="10"/>
       <c r="AD291" s="12"/>
     </row>
-    <row r="292" spans="1:30">
+    <row r="292" spans="1:30" hidden="1">
       <c r="A292" s="9" t="s">
         <v>1824</v>
       </c>
@@ -36011,7 +36018,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="293" spans="1:30">
+    <row r="293" spans="1:30" hidden="1">
       <c r="A293" s="9" t="s">
         <v>1828</v>
       </c>
@@ -36077,7 +36084,7 @@
       <c r="AC293" s="10"/>
       <c r="AD293" s="12"/>
     </row>
-    <row r="294" spans="1:30">
+    <row r="294" spans="1:30" hidden="1">
       <c r="A294" s="9" t="s">
         <v>1833</v>
       </c>
@@ -36143,7 +36150,7 @@
       <c r="AC294" s="10"/>
       <c r="AD294" s="12"/>
     </row>
-    <row r="295" spans="1:30">
+    <row r="295" spans="1:30" hidden="1">
       <c r="A295" s="9" t="s">
         <v>1838</v>
       </c>
@@ -36275,7 +36282,7 @@
       <c r="AC296" s="10"/>
       <c r="AD296" s="12"/>
     </row>
-    <row r="297" spans="1:30">
+    <row r="297" spans="1:30" hidden="1">
       <c r="A297" s="9" t="s">
         <v>1847</v>
       </c>
@@ -36367,7 +36374,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="298" spans="1:30">
+    <row r="298" spans="1:30" hidden="1">
       <c r="A298" s="9" t="s">
         <v>1855</v>
       </c>
@@ -36459,7 +36466,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="299" spans="1:30">
+    <row r="299" spans="1:30" hidden="1">
       <c r="A299" s="9" t="s">
         <v>1863</v>
       </c>
@@ -36551,7 +36558,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="300" spans="1:30">
+    <row r="300" spans="1:30" hidden="1">
       <c r="A300" s="9" t="s">
         <v>1870</v>
       </c>
@@ -36643,7 +36650,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="301" spans="1:30">
+    <row r="301" spans="1:30" hidden="1">
       <c r="A301" s="9" t="s">
         <v>1876</v>
       </c>
@@ -36735,7 +36742,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="302" spans="1:30">
+    <row r="302" spans="1:30" hidden="1">
       <c r="A302" s="9" t="s">
         <v>1881</v>
       </c>
@@ -36827,7 +36834,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="303" spans="1:30">
+    <row r="303" spans="1:30" hidden="1">
       <c r="A303" s="9" t="s">
         <v>1889</v>
       </c>
@@ -36919,7 +36926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="304" spans="1:30">
+    <row r="304" spans="1:30" hidden="1">
       <c r="A304" s="9" t="s">
         <v>1897</v>
       </c>
@@ -37011,7 +37018,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="305" spans="1:30">
+    <row r="305" spans="1:30" hidden="1">
       <c r="A305" s="9" t="s">
         <v>1905</v>
       </c>
@@ -37103,7 +37110,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="306" spans="1:30">
+    <row r="306" spans="1:30" hidden="1">
       <c r="A306" s="9" t="s">
         <v>1913</v>
       </c>
@@ -37195,7 +37202,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="307" spans="1:30">
+    <row r="307" spans="1:30" hidden="1">
       <c r="A307" s="9" t="s">
         <v>1923</v>
       </c>
@@ -37261,7 +37268,7 @@
       <c r="AC307" s="10"/>
       <c r="AD307" s="12"/>
     </row>
-    <row r="308" spans="1:30">
+    <row r="308" spans="1:30" hidden="1">
       <c r="A308" s="9" t="s">
         <v>1926</v>
       </c>
@@ -37353,7 +37360,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="309" spans="1:30">
+    <row r="309" spans="1:30" hidden="1">
       <c r="A309" s="9" t="s">
         <v>1936</v>
       </c>
@@ -37445,7 +37452,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="310" spans="1:30">
+    <row r="310" spans="1:30" hidden="1">
       <c r="A310" s="9" t="s">
         <v>1941</v>
       </c>
@@ -37537,7 +37544,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="311" spans="1:30">
+    <row r="311" spans="1:30" hidden="1">
       <c r="A311" s="9" t="s">
         <v>1950</v>
       </c>
@@ -37629,7 +37636,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="312" spans="1:30">
+    <row r="312" spans="1:30" hidden="1">
       <c r="A312" s="9" t="s">
         <v>1955</v>
       </c>
@@ -37787,7 +37794,7 @@
       <c r="AC313" s="10"/>
       <c r="AD313" s="12"/>
     </row>
-    <row r="314" spans="1:30">
+    <row r="314" spans="1:30" hidden="1">
       <c r="A314" s="9" t="s">
         <v>1963</v>
       </c>
@@ -37879,7 +37886,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="315" spans="1:30">
+    <row r="315" spans="1:30" hidden="1">
       <c r="A315" s="9" t="s">
         <v>1970</v>
       </c>
@@ -37945,7 +37952,7 @@
       <c r="AC315" s="10"/>
       <c r="AD315" s="12"/>
     </row>
-    <row r="316" spans="1:30">
+    <row r="316" spans="1:30" hidden="1">
       <c r="A316" s="9" t="s">
         <v>1975</v>
       </c>
@@ -38011,7 +38018,7 @@
       <c r="AC316" s="10"/>
       <c r="AD316" s="12"/>
     </row>
-    <row r="317" spans="1:30">
+    <row r="317" spans="1:30" hidden="1">
       <c r="A317" s="9" t="s">
         <v>1978</v>
       </c>
@@ -38103,7 +38110,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="318" spans="1:30">
+    <row r="318" spans="1:30" hidden="1">
       <c r="A318" s="9" t="s">
         <v>1986</v>
       </c>
@@ -38195,7 +38202,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="319" spans="1:30">
+    <row r="319" spans="1:30" hidden="1">
       <c r="A319" s="9" t="s">
         <v>1996</v>
       </c>
@@ -38287,7 +38294,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="320" spans="1:30">
+    <row r="320" spans="1:30" hidden="1">
       <c r="A320" s="9" t="s">
         <v>2002</v>
       </c>
@@ -38353,7 +38360,7 @@
       <c r="AC320" s="10"/>
       <c r="AD320" s="12"/>
     </row>
-    <row r="321" spans="1:30">
+    <row r="321" spans="1:30" hidden="1">
       <c r="A321" s="9" t="s">
         <v>2005</v>
       </c>
@@ -38551,7 +38558,7 @@
       <c r="AC323" s="10"/>
       <c r="AD323" s="12"/>
     </row>
-    <row r="324" spans="1:30">
+    <row r="324" spans="1:30" hidden="1">
       <c r="A324" s="9" t="s">
         <v>2020</v>
       </c>
@@ -38643,7 +38650,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="325" spans="1:30">
+    <row r="325" spans="1:30" hidden="1">
       <c r="A325" s="9" t="s">
         <v>2025</v>
       </c>
@@ -38735,7 +38742,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="326" spans="1:30">
+    <row r="326" spans="1:30" hidden="1">
       <c r="A326" s="9" t="s">
         <v>2030</v>
       </c>
@@ -38801,7 +38808,7 @@
       <c r="AC326" s="10"/>
       <c r="AD326" s="12"/>
     </row>
-    <row r="327" spans="1:30">
+    <row r="327" spans="1:30" hidden="1">
       <c r="A327" s="9" t="s">
         <v>2035</v>
       </c>
@@ -38867,7 +38874,7 @@
       <c r="AC327" s="10"/>
       <c r="AD327" s="12"/>
     </row>
-    <row r="328" spans="1:30">
+    <row r="328" spans="1:30" hidden="1">
       <c r="A328" s="9" t="s">
         <v>2040</v>
       </c>
@@ -38933,7 +38940,7 @@
       <c r="AC328" s="10"/>
       <c r="AD328" s="12"/>
     </row>
-    <row r="329" spans="1:30">
+    <row r="329" spans="1:30" hidden="1">
       <c r="A329" s="9" t="s">
         <v>2046</v>
       </c>
@@ -38999,7 +39006,7 @@
       <c r="AC329" s="10"/>
       <c r="AD329" s="12"/>
     </row>
-    <row r="330" spans="1:30">
+    <row r="330" spans="1:30" hidden="1">
       <c r="A330" s="9" t="s">
         <v>2048</v>
       </c>
@@ -39091,7 +39098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="331" spans="1:30">
+    <row r="331" spans="1:30" hidden="1">
       <c r="A331" s="9" t="s">
         <v>2051</v>
       </c>
@@ -39183,7 +39190,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="332" spans="1:30">
+    <row r="332" spans="1:30" hidden="1">
       <c r="A332" s="9" t="s">
         <v>2053</v>
       </c>
@@ -39249,7 +39256,7 @@
       <c r="AC332" s="10"/>
       <c r="AD332" s="12"/>
     </row>
-    <row r="333" spans="1:30">
+    <row r="333" spans="1:30" hidden="1">
       <c r="A333" s="9" t="s">
         <v>2056</v>
       </c>
@@ -39341,7 +39348,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="334" spans="1:30">
+    <row r="334" spans="1:30" hidden="1">
       <c r="A334" s="9" t="s">
         <v>2063</v>
       </c>
@@ -39433,7 +39440,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="335" spans="1:30">
+    <row r="335" spans="1:30" hidden="1">
       <c r="A335" s="9" t="s">
         <v>2070</v>
       </c>
@@ -39525,7 +39532,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="336" spans="1:30">
+    <row r="336" spans="1:30" hidden="1">
       <c r="A336" s="9" t="s">
         <v>2074</v>
       </c>
@@ -39617,7 +39624,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="337" spans="1:30">
+    <row r="337" spans="1:30" hidden="1">
       <c r="A337" s="9" t="s">
         <v>2083</v>
       </c>
@@ -39683,7 +39690,7 @@
       <c r="AC337" s="10"/>
       <c r="AD337" s="12"/>
     </row>
-    <row r="338" spans="1:30">
+    <row r="338" spans="1:30" hidden="1">
       <c r="A338" s="9" t="s">
         <v>2087</v>
       </c>
@@ -39775,7 +39782,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="339" spans="1:30">
+    <row r="339" spans="1:30" hidden="1">
       <c r="A339" s="9" t="s">
         <v>2092</v>
       </c>
@@ -39867,7 +39874,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="340" spans="1:30">
+    <row r="340" spans="1:30" hidden="1">
       <c r="A340" s="9" t="s">
         <v>2100</v>
       </c>
@@ -39933,7 +39940,7 @@
       <c r="AC340" s="10"/>
       <c r="AD340" s="12"/>
     </row>
-    <row r="341" spans="1:30">
+    <row r="341" spans="1:30" hidden="1">
       <c r="A341" s="9" t="s">
         <v>2102</v>
       </c>
@@ -39999,7 +40006,7 @@
       <c r="AC341" s="10"/>
       <c r="AD341" s="12"/>
     </row>
-    <row r="342" spans="1:30">
+    <row r="342" spans="1:30" hidden="1">
       <c r="A342" s="9" t="s">
         <v>2106</v>
       </c>
@@ -40091,7 +40098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="343" spans="1:30">
+    <row r="343" spans="1:30" hidden="1">
       <c r="A343" s="9" t="s">
         <v>2111</v>
       </c>
@@ -40183,7 +40190,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="344" spans="1:30">
+    <row r="344" spans="1:30" hidden="1">
       <c r="A344" s="9" t="s">
         <v>2116</v>
       </c>
@@ -40275,7 +40282,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="345" spans="1:30">
+    <row r="345" spans="1:30" hidden="1">
       <c r="A345" s="9" t="s">
         <v>2120</v>
       </c>
@@ -40367,7 +40374,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="346" spans="1:30">
+    <row r="346" spans="1:30" hidden="1">
       <c r="A346" s="9" t="s">
         <v>2124</v>
       </c>
@@ -40459,7 +40466,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="347" spans="1:30">
+    <row r="347" spans="1:30" hidden="1">
       <c r="A347" s="9" t="s">
         <v>2128</v>
       </c>
@@ -40525,7 +40532,7 @@
       <c r="AC347" s="10"/>
       <c r="AD347" s="12"/>
     </row>
-    <row r="348" spans="1:30">
+    <row r="348" spans="1:30" hidden="1">
       <c r="A348" s="9" t="s">
         <v>2132</v>
       </c>
@@ -40617,7 +40624,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="349" spans="1:30">
+    <row r="349" spans="1:30" hidden="1">
       <c r="A349" s="9" t="s">
         <v>2135</v>
       </c>
@@ -40709,7 +40716,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="350" spans="1:30">
+    <row r="350" spans="1:30" hidden="1">
       <c r="A350" s="9" t="s">
         <v>2138</v>
       </c>
@@ -40801,7 +40808,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="351" spans="1:30">
+    <row r="351" spans="1:30" hidden="1">
       <c r="A351" s="9" t="s">
         <v>2143</v>
       </c>
@@ -40893,7 +40900,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="352" spans="1:30">
+    <row r="352" spans="1:30" hidden="1">
       <c r="A352" s="9" t="s">
         <v>2153</v>
       </c>
@@ -40959,7 +40966,7 @@
       <c r="AC352" s="10"/>
       <c r="AD352" s="12"/>
     </row>
-    <row r="353" spans="1:30">
+    <row r="353" spans="1:30" hidden="1">
       <c r="A353" s="9" t="s">
         <v>2157</v>
       </c>
@@ -41025,7 +41032,7 @@
       <c r="AC353" s="10"/>
       <c r="AD353" s="12"/>
     </row>
-    <row r="354" spans="1:30">
+    <row r="354" spans="1:30" hidden="1">
       <c r="A354" s="9" t="s">
         <v>2161</v>
       </c>
@@ -41091,7 +41098,7 @@
       <c r="AC354" s="10"/>
       <c r="AD354" s="12"/>
     </row>
-    <row r="355" spans="1:30">
+    <row r="355" spans="1:30" hidden="1">
       <c r="A355" s="9" t="s">
         <v>2165</v>
       </c>
@@ -41183,7 +41190,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="356" spans="1:30">
+    <row r="356" spans="1:30" hidden="1">
       <c r="A356" s="9" t="s">
         <v>2176</v>
       </c>
@@ -41249,7 +41256,7 @@
       <c r="AC356" s="10"/>
       <c r="AD356" s="12"/>
     </row>
-    <row r="357" spans="1:30">
+    <row r="357" spans="1:30" hidden="1">
       <c r="A357" s="9" t="s">
         <v>2180</v>
       </c>
@@ -41341,7 +41348,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="358" spans="1:30">
+    <row r="358" spans="1:30" hidden="1">
       <c r="A358" s="9" t="s">
         <v>2190</v>
       </c>
@@ -41433,7 +41440,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="359" spans="1:30">
+    <row r="359" spans="1:30" hidden="1">
       <c r="A359" s="9" t="s">
         <v>2200</v>
       </c>
@@ -41525,7 +41532,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="360" spans="1:30">
+    <row r="360" spans="1:30" hidden="1">
       <c r="A360" s="9" t="s">
         <v>2209</v>
       </c>
@@ -41617,7 +41624,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="361" spans="1:30">
+    <row r="361" spans="1:30" hidden="1">
       <c r="A361" s="9" t="s">
         <v>2215</v>
       </c>
@@ -41709,7 +41716,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="362" spans="1:30">
+    <row r="362" spans="1:30" hidden="1">
       <c r="A362" s="9" t="s">
         <v>2223</v>
       </c>
@@ -41801,7 +41808,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="363" spans="1:30">
+    <row r="363" spans="1:30" hidden="1">
       <c r="A363" s="9" t="s">
         <v>2231</v>
       </c>
@@ -41893,7 +41900,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="364" spans="1:30">
+    <row r="364" spans="1:30" hidden="1">
       <c r="A364" s="9" t="s">
         <v>2241</v>
       </c>
@@ -41985,7 +41992,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="365" spans="1:30">
+    <row r="365" spans="1:30" hidden="1">
       <c r="A365" s="9" t="s">
         <v>2246</v>
       </c>
@@ -42077,7 +42084,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="366" spans="1:30">
+    <row r="366" spans="1:30" hidden="1">
       <c r="A366" s="9" t="s">
         <v>2256</v>
       </c>
@@ -42169,7 +42176,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="367" spans="1:30">
+    <row r="367" spans="1:30" hidden="1">
       <c r="A367" s="9" t="s">
         <v>2265</v>
       </c>
@@ -42261,7 +42268,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="368" spans="1:30">
+    <row r="368" spans="1:30" hidden="1">
       <c r="A368" s="9" t="s">
         <v>2273</v>
       </c>
@@ -42353,7 +42360,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="369" spans="1:30">
+    <row r="369" spans="1:30" hidden="1">
       <c r="A369" s="9" t="s">
         <v>2280</v>
       </c>
@@ -42445,7 +42452,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="370" spans="1:30">
+    <row r="370" spans="1:30" hidden="1">
       <c r="A370" s="9" t="s">
         <v>2284</v>
       </c>
@@ -42537,7 +42544,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="371" spans="1:30">
+    <row r="371" spans="1:30" hidden="1">
       <c r="A371" s="9" t="s">
         <v>2289</v>
       </c>
@@ -42629,7 +42636,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="372" spans="1:30">
+    <row r="372" spans="1:30" hidden="1">
       <c r="A372" s="9" t="s">
         <v>2294</v>
       </c>
@@ -42721,7 +42728,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="373" spans="1:30">
+    <row r="373" spans="1:30" hidden="1">
       <c r="A373" s="9" t="s">
         <v>2303</v>
       </c>
@@ -42813,7 +42820,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="374" spans="1:30">
+    <row r="374" spans="1:30" hidden="1">
       <c r="A374" s="9" t="s">
         <v>2309</v>
       </c>
@@ -42905,7 +42912,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="375" spans="1:30">
+    <row r="375" spans="1:30" hidden="1">
       <c r="A375" s="9" t="s">
         <v>2318</v>
       </c>
@@ -42997,7 +43004,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="376" spans="1:30">
+    <row r="376" spans="1:30" hidden="1">
       <c r="A376" s="9" t="s">
         <v>2325</v>
       </c>
@@ -43089,7 +43096,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="377" spans="1:30">
+    <row r="377" spans="1:30" hidden="1">
       <c r="A377" s="9" t="s">
         <v>2330</v>
       </c>
@@ -43181,7 +43188,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="378" spans="1:30">
+    <row r="378" spans="1:30" hidden="1">
       <c r="A378" s="9" t="s">
         <v>2340</v>
       </c>
@@ -43273,7 +43280,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="379" spans="1:30">
+    <row r="379" spans="1:30" hidden="1">
       <c r="A379" s="9" t="s">
         <v>2347</v>
       </c>
@@ -43365,7 +43372,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="380" spans="1:30">
+    <row r="380" spans="1:30" hidden="1">
       <c r="A380" s="9" t="s">
         <v>2353</v>
       </c>
@@ -43457,7 +43464,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="381" spans="1:30">
+    <row r="381" spans="1:30" hidden="1">
       <c r="A381" s="9" t="s">
         <v>2363</v>
       </c>
@@ -43549,7 +43556,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="382" spans="1:30">
+    <row r="382" spans="1:30" hidden="1">
       <c r="A382" s="9" t="s">
         <v>2369</v>
       </c>
@@ -43641,7 +43648,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="383" spans="1:30">
+    <row r="383" spans="1:30" hidden="1">
       <c r="A383" s="9" t="s">
         <v>2377</v>
       </c>
@@ -43733,7 +43740,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="384" spans="1:30">
+    <row r="384" spans="1:30" hidden="1">
       <c r="A384" s="9" t="s">
         <v>2385</v>
       </c>
@@ -43825,7 +43832,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="385" spans="1:30">
+    <row r="385" spans="1:30" hidden="1">
       <c r="A385" s="9" t="s">
         <v>2393</v>
       </c>
@@ -43917,7 +43924,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="386" spans="1:30">
+    <row r="386" spans="1:30" hidden="1">
       <c r="A386" s="9" t="s">
         <v>2403</v>
       </c>
@@ -44009,7 +44016,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="387" spans="1:30">
+    <row r="387" spans="1:30" hidden="1">
       <c r="A387" s="9" t="s">
         <v>2411</v>
       </c>
@@ -44101,7 +44108,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="388" spans="1:30">
+    <row r="388" spans="1:30" hidden="1">
       <c r="A388" s="9" t="s">
         <v>2421</v>
       </c>
@@ -44193,7 +44200,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="389" spans="1:30">
+    <row r="389" spans="1:30" hidden="1">
       <c r="A389" s="9" t="s">
         <v>2429</v>
       </c>
@@ -44285,7 +44292,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="390" spans="1:30">
+    <row r="390" spans="1:30" hidden="1">
       <c r="A390" s="9" t="s">
         <v>2437</v>
       </c>
@@ -44377,7 +44384,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="391" spans="1:30">
+    <row r="391" spans="1:30" hidden="1">
       <c r="A391" s="9" t="s">
         <v>2444</v>
       </c>
@@ -44469,7 +44476,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="392" spans="1:30">
+    <row r="392" spans="1:30" hidden="1">
       <c r="A392" s="9" t="s">
         <v>2450</v>
       </c>
@@ -44561,7 +44568,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="393" spans="1:30">
+    <row r="393" spans="1:30" hidden="1">
       <c r="A393" s="9" t="s">
         <v>2460</v>
       </c>
@@ -44627,7 +44634,7 @@
       <c r="AC393" s="10"/>
       <c r="AD393" s="12"/>
     </row>
-    <row r="394" spans="1:30">
+    <row r="394" spans="1:30" hidden="1">
       <c r="A394" s="9" t="s">
         <v>2464</v>
       </c>
@@ -44719,7 +44726,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="395" spans="1:30">
+    <row r="395" spans="1:30" hidden="1">
       <c r="A395" s="9" t="s">
         <v>2474</v>
       </c>
@@ -44811,7 +44818,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="396" spans="1:30">
+    <row r="396" spans="1:30" hidden="1">
       <c r="A396" s="9" t="s">
         <v>2482</v>
       </c>
@@ -44903,7 +44910,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="397" spans="1:30">
+    <row r="397" spans="1:30" hidden="1">
       <c r="A397" s="9" t="s">
         <v>2486</v>
       </c>
@@ -44995,7 +45002,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="398" spans="1:30">
+    <row r="398" spans="1:30" hidden="1">
       <c r="A398" s="9" t="s">
         <v>2492</v>
       </c>
@@ -45087,7 +45094,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="399" spans="1:30">
+    <row r="399" spans="1:30" hidden="1">
       <c r="A399" s="9" t="s">
         <v>2503</v>
       </c>
@@ -45179,7 +45186,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="400" spans="1:30">
+    <row r="400" spans="1:30" hidden="1">
       <c r="A400" s="9" t="s">
         <v>2505</v>
       </c>
@@ -45271,7 +45278,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="401" spans="1:30">
+    <row r="401" spans="1:30" hidden="1">
       <c r="A401" s="9" t="s">
         <v>2510</v>
       </c>
@@ -45363,7 +45370,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="402" spans="1:30">
+    <row r="402" spans="1:30" hidden="1">
       <c r="A402" s="9" t="s">
         <v>2518</v>
       </c>
@@ -45455,7 +45462,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="403" spans="1:30">
+    <row r="403" spans="1:30" hidden="1">
       <c r="A403" s="9" t="s">
         <v>2522</v>
       </c>
@@ -45547,7 +45554,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="404" spans="1:30">
+    <row r="404" spans="1:30" hidden="1">
       <c r="A404" s="9" t="s">
         <v>2527</v>
       </c>
@@ -45639,7 +45646,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="405" spans="1:30">
+    <row r="405" spans="1:30" hidden="1">
       <c r="A405" s="9" t="s">
         <v>2534</v>
       </c>
@@ -45731,7 +45738,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="406" spans="1:30">
+    <row r="406" spans="1:30" hidden="1">
       <c r="A406" s="9" t="s">
         <v>2542</v>
       </c>
@@ -45823,7 +45830,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="407" spans="1:30">
+    <row r="407" spans="1:30" hidden="1">
       <c r="A407" s="9" t="s">
         <v>2552</v>
       </c>
@@ -45915,7 +45922,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="408" spans="1:30">
+    <row r="408" spans="1:30" hidden="1">
       <c r="A408" s="9" t="s">
         <v>2560</v>
       </c>
@@ -46007,7 +46014,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="409" spans="1:30">
+    <row r="409" spans="1:30" hidden="1">
       <c r="A409" s="9" t="s">
         <v>2568</v>
       </c>
@@ -46099,7 +46106,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="410" spans="1:30">
+    <row r="410" spans="1:30" hidden="1">
       <c r="A410" s="9" t="s">
         <v>2573</v>
       </c>
@@ -46191,7 +46198,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="411" spans="1:30">
+    <row r="411" spans="1:30" hidden="1">
       <c r="A411" s="9" t="s">
         <v>2582</v>
       </c>
@@ -46283,7 +46290,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="412" spans="1:30">
+    <row r="412" spans="1:30" hidden="1">
       <c r="A412" s="9" t="s">
         <v>2592</v>
       </c>
@@ -46375,7 +46382,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="413" spans="1:30">
+    <row r="413" spans="1:30" hidden="1">
       <c r="A413" s="9" t="s">
         <v>2600</v>
       </c>
@@ -46467,7 +46474,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="414" spans="1:30">
+    <row r="414" spans="1:30" hidden="1">
       <c r="A414" s="9" t="s">
         <v>2609</v>
       </c>
@@ -46559,7 +46566,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="415" spans="1:30">
+    <row r="415" spans="1:30" hidden="1">
       <c r="A415" s="9" t="s">
         <v>2617</v>
       </c>
@@ -46651,7 +46658,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="416" spans="1:30">
+    <row r="416" spans="1:30" hidden="1">
       <c r="A416" s="9" t="s">
         <v>2619</v>
       </c>
@@ -46743,7 +46750,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="417" spans="1:30">
+    <row r="417" spans="1:30" hidden="1">
       <c r="A417" s="9" t="s">
         <v>2629</v>
       </c>
@@ -46835,7 +46842,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="418" spans="1:30">
+    <row r="418" spans="1:30" hidden="1">
       <c r="A418" s="9" t="s">
         <v>2633</v>
       </c>
@@ -46927,7 +46934,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="419" spans="1:30">
+    <row r="419" spans="1:30" hidden="1">
       <c r="A419" s="9" t="s">
         <v>2643</v>
       </c>
@@ -47019,7 +47026,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="420" spans="1:30">
+    <row r="420" spans="1:30" hidden="1">
       <c r="A420" s="9" t="s">
         <v>2649</v>
       </c>
@@ -47111,7 +47118,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="421" spans="1:30">
+    <row r="421" spans="1:30" hidden="1">
       <c r="A421" s="9" t="s">
         <v>2655</v>
       </c>
@@ -47203,7 +47210,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="422" spans="1:30">
+    <row r="422" spans="1:30" hidden="1">
       <c r="A422" s="9" t="s">
         <v>2664</v>
       </c>
@@ -47295,7 +47302,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="423" spans="1:30">
+    <row r="423" spans="1:30" hidden="1">
       <c r="A423" s="9" t="s">
         <v>2672</v>
       </c>
@@ -47387,7 +47394,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="424" spans="1:30">
+    <row r="424" spans="1:30" hidden="1">
       <c r="A424" s="9" t="s">
         <v>2678</v>
       </c>
@@ -47479,7 +47486,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="425" spans="1:30">
+    <row r="425" spans="1:30" hidden="1">
       <c r="A425" s="9" t="s">
         <v>2684</v>
       </c>
@@ -47571,7 +47578,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="426" spans="1:30">
+    <row r="426" spans="1:30" hidden="1">
       <c r="A426" s="9" t="s">
         <v>2690</v>
       </c>
@@ -47663,7 +47670,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="427" spans="1:30">
+    <row r="427" spans="1:30" hidden="1">
       <c r="A427" s="9" t="s">
         <v>2692</v>
       </c>
@@ -47729,7 +47736,7 @@
       <c r="AC427" s="10"/>
       <c r="AD427" s="12"/>
     </row>
-    <row r="428" spans="1:30">
+    <row r="428" spans="1:30" hidden="1">
       <c r="A428" s="9" t="s">
         <v>2694</v>
       </c>
@@ -47821,7 +47828,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="429" spans="1:30">
+    <row r="429" spans="1:30" hidden="1">
       <c r="A429" s="9" t="s">
         <v>2706</v>
       </c>
@@ -47887,7 +47894,7 @@
       <c r="AC429" s="10"/>
       <c r="AD429" s="12"/>
     </row>
-    <row r="430" spans="1:30">
+    <row r="430" spans="1:30" hidden="1">
       <c r="A430" s="9" t="s">
         <v>2710</v>
       </c>
@@ -47979,7 +47986,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="431" spans="1:30">
+    <row r="431" spans="1:30" hidden="1">
       <c r="A431" s="9" t="s">
         <v>2718</v>
       </c>
@@ -48071,7 +48078,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="432" spans="1:30">
+    <row r="432" spans="1:30" hidden="1">
       <c r="A432" s="9" t="s">
         <v>2726</v>
       </c>
@@ -48137,7 +48144,7 @@
       <c r="AC432" s="10"/>
       <c r="AD432" s="12"/>
     </row>
-    <row r="433" spans="1:30">
+    <row r="433" spans="1:30" hidden="1">
       <c r="A433" s="9" t="s">
         <v>2728</v>
       </c>
@@ -48229,7 +48236,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="434" spans="1:30">
+    <row r="434" spans="1:30" hidden="1">
       <c r="A434" s="9" t="s">
         <v>2732</v>
       </c>
@@ -48321,7 +48328,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="435" spans="1:30">
+    <row r="435" spans="1:30" hidden="1">
       <c r="A435" s="9" t="s">
         <v>2738</v>
       </c>
@@ -48413,7 +48420,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="436" spans="1:30">
+    <row r="436" spans="1:30" hidden="1">
       <c r="A436" s="9" t="s">
         <v>2750</v>
       </c>
@@ -48505,7 +48512,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="437" spans="1:30">
+    <row r="437" spans="1:30" hidden="1">
       <c r="A437" s="9" t="s">
         <v>2758</v>
       </c>
@@ -48597,7 +48604,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="438" spans="1:30">
+    <row r="438" spans="1:30" hidden="1">
       <c r="A438" s="9" t="s">
         <v>2761</v>
       </c>
@@ -48689,7 +48696,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="439" spans="1:30">
+    <row r="439" spans="1:30" hidden="1">
       <c r="A439" s="9" t="s">
         <v>2768</v>
       </c>
@@ -48781,7 +48788,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="440" spans="1:30">
+    <row r="440" spans="1:30" hidden="1">
       <c r="A440" s="9" t="s">
         <v>2775</v>
       </c>
@@ -48847,7 +48854,7 @@
       <c r="AC440" s="10"/>
       <c r="AD440" s="12"/>
     </row>
-    <row r="441" spans="1:30">
+    <row r="441" spans="1:30" hidden="1">
       <c r="A441" s="9" t="s">
         <v>2777</v>
       </c>
@@ -48939,7 +48946,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="442" spans="1:30">
+    <row r="442" spans="1:30" hidden="1">
       <c r="A442" s="9" t="s">
         <v>2785</v>
       </c>
@@ -49031,7 +49038,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="443" spans="1:30">
+    <row r="443" spans="1:30" hidden="1">
       <c r="A443" s="9" t="s">
         <v>2791</v>
       </c>
@@ -49123,7 +49130,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="444" spans="1:30">
+    <row r="444" spans="1:30" hidden="1">
       <c r="A444" s="9" t="s">
         <v>2794</v>
       </c>
@@ -49215,7 +49222,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="445" spans="1:30">
+    <row r="445" spans="1:30" hidden="1">
       <c r="A445" s="9" t="s">
         <v>2804</v>
       </c>
@@ -49307,7 +49314,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="446" spans="1:30">
+    <row r="446" spans="1:30" hidden="1">
       <c r="A446" s="9" t="s">
         <v>2812</v>
       </c>
@@ -49399,7 +49406,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="447" spans="1:30">
+    <row r="447" spans="1:30" hidden="1">
       <c r="A447" s="9" t="s">
         <v>2822</v>
       </c>
@@ -49491,7 +49498,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="448" spans="1:30">
+    <row r="448" spans="1:30" hidden="1">
       <c r="A448" s="9" t="s">
         <v>2826</v>
       </c>
@@ -49583,7 +49590,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="449" spans="1:30">
+    <row r="449" spans="1:30" hidden="1">
       <c r="A449" s="9" t="s">
         <v>2836</v>
       </c>
@@ -49649,7 +49656,7 @@
       <c r="AC449" s="10"/>
       <c r="AD449" s="12"/>
     </row>
-    <row r="450" spans="1:30">
+    <row r="450" spans="1:30" hidden="1">
       <c r="A450" s="9" t="s">
         <v>2838</v>
       </c>
@@ -49741,7 +49748,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="451" spans="1:30">
+    <row r="451" spans="1:30" hidden="1">
       <c r="A451" s="9" t="s">
         <v>2848</v>
       </c>
@@ -49807,7 +49814,7 @@
       <c r="AC451" s="10"/>
       <c r="AD451" s="12"/>
     </row>
-    <row r="452" spans="1:30">
+    <row r="452" spans="1:30" hidden="1">
       <c r="A452" s="9" t="s">
         <v>2852</v>
       </c>
@@ -49899,7 +49906,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="453" spans="1:30">
+    <row r="453" spans="1:30" hidden="1">
       <c r="A453" s="9" t="s">
         <v>2861</v>
       </c>
@@ -49991,7 +49998,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="454" spans="1:30">
+    <row r="454" spans="1:30" hidden="1">
       <c r="A454" s="9" t="s">
         <v>2867</v>
       </c>
@@ -50083,7 +50090,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="455" spans="1:30">
+    <row r="455" spans="1:30" hidden="1">
       <c r="A455" s="9" t="s">
         <v>2875</v>
       </c>
@@ -50175,7 +50182,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="456" spans="1:30">
+    <row r="456" spans="1:30" hidden="1">
       <c r="A456" s="9" t="s">
         <v>2883</v>
       </c>
@@ -50267,7 +50274,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="457" spans="1:30">
+    <row r="457" spans="1:30" hidden="1">
       <c r="A457" s="9" t="s">
         <v>2893</v>
       </c>
@@ -50359,7 +50366,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="458" spans="1:30">
+    <row r="458" spans="1:30" hidden="1">
       <c r="A458" s="9" t="s">
         <v>2901</v>
       </c>
@@ -50425,7 +50432,7 @@
       <c r="AC458" s="10"/>
       <c r="AD458" s="12"/>
     </row>
-    <row r="459" spans="1:30">
+    <row r="459" spans="1:30" hidden="1">
       <c r="A459" s="9" t="s">
         <v>2905</v>
       </c>
@@ -50517,7 +50524,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="460" spans="1:30">
+    <row r="460" spans="1:30" hidden="1">
       <c r="A460" s="9" t="s">
         <v>2911</v>
       </c>
@@ -50609,7 +50616,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="461" spans="1:30">
+    <row r="461" spans="1:30" hidden="1">
       <c r="A461" s="9" t="s">
         <v>2919</v>
       </c>
@@ -50701,7 +50708,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="462" spans="1:30">
+    <row r="462" spans="1:30" hidden="1">
       <c r="A462" s="9" t="s">
         <v>2927</v>
       </c>
@@ -50793,7 +50800,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="463" spans="1:30">
+    <row r="463" spans="1:30" hidden="1">
       <c r="A463" s="9" t="s">
         <v>2933</v>
       </c>
@@ -50885,7 +50892,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="464" spans="1:30">
+    <row r="464" spans="1:30" hidden="1">
       <c r="A464" s="9" t="s">
         <v>2939</v>
       </c>
@@ -50977,7 +50984,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="465" spans="1:30">
+    <row r="465" spans="1:30" hidden="1">
       <c r="A465" s="9" t="s">
         <v>2946</v>
       </c>
@@ -51069,7 +51076,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="466" spans="1:30">
+    <row r="466" spans="1:30" hidden="1">
       <c r="A466" s="9" t="s">
         <v>2954</v>
       </c>
@@ -51161,7 +51168,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="467" spans="1:30">
+    <row r="467" spans="1:30" hidden="1">
       <c r="A467" s="9" t="s">
         <v>2962</v>
       </c>
@@ -51253,7 +51260,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="468" spans="1:30">
+    <row r="468" spans="1:30" hidden="1">
       <c r="A468" s="9" t="s">
         <v>2970</v>
       </c>
@@ -51345,7 +51352,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="469" spans="1:30">
+    <row r="469" spans="1:30" hidden="1">
       <c r="A469" s="9" t="s">
         <v>2978</v>
       </c>
@@ -51437,7 +51444,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="470" spans="1:30">
+    <row r="470" spans="1:30" hidden="1">
       <c r="A470" s="9" t="s">
         <v>2990</v>
       </c>
@@ -51529,7 +51536,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="471" spans="1:30">
+    <row r="471" spans="1:30" hidden="1">
       <c r="A471" s="9" t="s">
         <v>2995</v>
       </c>
@@ -51621,7 +51628,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="472" spans="1:30">
+    <row r="472" spans="1:30" hidden="1">
       <c r="A472" s="9" t="s">
         <v>3001</v>
       </c>
@@ -51713,7 +51720,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="473" spans="1:30">
+    <row r="473" spans="1:30" hidden="1">
       <c r="A473" s="9" t="s">
         <v>3005</v>
       </c>
@@ -51805,7 +51812,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="474" spans="1:30">
+    <row r="474" spans="1:30" hidden="1">
       <c r="A474" s="9" t="s">
         <v>3009</v>
       </c>
@@ -51897,7 +51904,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="475" spans="1:30">
+    <row r="475" spans="1:30" hidden="1">
       <c r="A475" s="9" t="s">
         <v>3017</v>
       </c>
@@ -51989,7 +51996,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="476" spans="1:30">
+    <row r="476" spans="1:30" hidden="1">
       <c r="A476" s="9" t="s">
         <v>3029</v>
       </c>
@@ -52081,7 +52088,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="477" spans="1:30">
+    <row r="477" spans="1:30" hidden="1">
       <c r="A477" s="9" t="s">
         <v>3036</v>
       </c>
@@ -52173,7 +52180,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="478" spans="1:30">
+    <row r="478" spans="1:30" hidden="1">
       <c r="A478" s="9" t="s">
         <v>3047</v>
       </c>
@@ -52265,7 +52272,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="479" spans="1:30">
+    <row r="479" spans="1:30" hidden="1">
       <c r="A479" s="9" t="s">
         <v>3055</v>
       </c>
@@ -52331,7 +52338,7 @@
       <c r="AC479" s="10"/>
       <c r="AD479" s="12"/>
     </row>
-    <row r="480" spans="1:30">
+    <row r="480" spans="1:30" hidden="1">
       <c r="A480" s="9" t="s">
         <v>3060</v>
       </c>
@@ -52423,7 +52430,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="481" spans="1:30">
+    <row r="481" spans="1:30" hidden="1">
       <c r="A481" s="9" t="s">
         <v>3064</v>
       </c>
@@ -52515,7 +52522,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="482" spans="1:30">
+    <row r="482" spans="1:30" hidden="1">
       <c r="A482" s="9" t="s">
         <v>3070</v>
       </c>
@@ -52607,7 +52614,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="483" spans="1:30">
+    <row r="483" spans="1:30" hidden="1">
       <c r="A483" s="9" t="s">
         <v>3074</v>
       </c>
@@ -52699,7 +52706,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="484" spans="1:30">
+    <row r="484" spans="1:30" hidden="1">
       <c r="A484" s="9" t="s">
         <v>3084</v>
       </c>
@@ -52791,7 +52798,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="485" spans="1:30">
+    <row r="485" spans="1:30" hidden="1">
       <c r="A485" s="9" t="s">
         <v>3091</v>
       </c>
@@ -52883,7 +52890,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="486" spans="1:30">
+    <row r="486" spans="1:30" hidden="1">
       <c r="A486" s="9" t="s">
         <v>3097</v>
       </c>
@@ -52949,7 +52956,7 @@
       <c r="AC486" s="10"/>
       <c r="AD486" s="12"/>
     </row>
-    <row r="487" spans="1:30">
+    <row r="487" spans="1:30" hidden="1">
       <c r="A487" s="9" t="s">
         <v>3099</v>
       </c>
@@ -53041,7 +53048,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="488" spans="1:30">
+    <row r="488" spans="1:30" hidden="1">
       <c r="A488" s="9" t="s">
         <v>3105</v>
       </c>
@@ -53133,7 +53140,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="489" spans="1:30">
+    <row r="489" spans="1:30" hidden="1">
       <c r="A489" s="9" t="s">
         <v>3111</v>
       </c>
@@ -53225,7 +53232,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="490" spans="1:30">
+    <row r="490" spans="1:30" hidden="1">
       <c r="A490" s="9" t="s">
         <v>3113</v>
       </c>
@@ -53317,7 +53324,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="491" spans="1:30">
+    <row r="491" spans="1:30" hidden="1">
       <c r="A491" s="9" t="s">
         <v>3115</v>
       </c>
@@ -53409,7 +53416,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="492" spans="1:30">
+    <row r="492" spans="1:30" hidden="1">
       <c r="A492" s="9" t="s">
         <v>3121</v>
       </c>
@@ -53501,7 +53508,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="493" spans="1:30">
+    <row r="493" spans="1:30" hidden="1">
       <c r="A493" s="9" t="s">
         <v>3123</v>
       </c>
@@ -53593,7 +53600,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="494" spans="1:30">
+    <row r="494" spans="1:30" hidden="1">
       <c r="A494" s="9" t="s">
         <v>3129</v>
       </c>
@@ -53685,7 +53692,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="495" spans="1:30">
+    <row r="495" spans="1:30" hidden="1">
       <c r="A495" s="9" t="s">
         <v>3133</v>
       </c>
@@ -53777,7 +53784,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="496" spans="1:30">
+    <row r="496" spans="1:30" hidden="1">
       <c r="A496" s="9" t="s">
         <v>3135</v>
       </c>
@@ -53869,7 +53876,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="497" spans="1:30">
+    <row r="497" spans="1:30" hidden="1">
       <c r="A497" s="9" t="s">
         <v>3141</v>
       </c>
@@ -53961,7 +53968,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="498" spans="1:30">
+    <row r="498" spans="1:30" hidden="1">
       <c r="A498" s="9" t="s">
         <v>3145</v>
       </c>
@@ -54053,7 +54060,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="499" spans="1:30">
+    <row r="499" spans="1:30" hidden="1">
       <c r="A499" s="9" t="s">
         <v>3153</v>
       </c>
@@ -54145,7 +54152,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="500" spans="1:30">
+    <row r="500" spans="1:30" hidden="1">
       <c r="A500" s="9" t="s">
         <v>3159</v>
       </c>
@@ -54237,7 +54244,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="501" spans="1:30">
+    <row r="501" spans="1:30" hidden="1">
       <c r="A501" s="9" t="s">
         <v>3167</v>
       </c>
@@ -54329,7 +54336,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="502" spans="1:30">
+    <row r="502" spans="1:30" hidden="1">
       <c r="A502" s="9" t="s">
         <v>3168</v>
       </c>
@@ -54421,7 +54428,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="503" spans="1:30">
+    <row r="503" spans="1:30" hidden="1">
       <c r="A503" s="9" t="s">
         <v>3170</v>
       </c>
@@ -54513,7 +54520,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="504" spans="1:30">
+    <row r="504" spans="1:30" hidden="1">
       <c r="A504" s="9" t="s">
         <v>3172</v>
       </c>
@@ -54605,7 +54612,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="505" spans="1:30">
+    <row r="505" spans="1:30" hidden="1">
       <c r="A505" s="9" t="s">
         <v>3174</v>
       </c>
@@ -54697,7 +54704,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="506" spans="1:30">
+    <row r="506" spans="1:30" hidden="1">
       <c r="A506" s="9" t="s">
         <v>3181</v>
       </c>
@@ -54789,7 +54796,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="507" spans="1:30">
+    <row r="507" spans="1:30" hidden="1">
       <c r="A507" s="9" t="s">
         <v>3185</v>
       </c>
@@ -54855,7 +54862,7 @@
       <c r="AC507" s="10"/>
       <c r="AD507" s="12"/>
     </row>
-    <row r="508" spans="1:30">
+    <row r="508" spans="1:30" hidden="1">
       <c r="A508" s="9" t="s">
         <v>3187</v>
       </c>
@@ -54947,7 +54954,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="509" spans="1:30">
+    <row r="509" spans="1:30" hidden="1">
       <c r="A509" s="9" t="s">
         <v>3189</v>
       </c>
@@ -55039,7 +55046,7 @@
         <v>3191</v>
       </c>
     </row>
-    <row r="510" spans="1:30">
+    <row r="510" spans="1:30" hidden="1">
       <c r="A510" s="9" t="s">
         <v>3195</v>
       </c>
@@ -55105,7 +55112,7 @@
       <c r="AC510" s="10"/>
       <c r="AD510" s="12"/>
     </row>
-    <row r="511" spans="1:30">
+    <row r="511" spans="1:30" hidden="1">
       <c r="A511" s="9" t="s">
         <v>3197</v>
       </c>
@@ -55197,7 +55204,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="512" spans="1:30">
+    <row r="512" spans="1:30" hidden="1">
       <c r="A512" s="9" t="s">
         <v>3207</v>
       </c>
@@ -55289,7 +55296,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="513" spans="1:30">
+    <row r="513" spans="1:30" hidden="1">
       <c r="A513" s="9" t="s">
         <v>3209</v>
       </c>
@@ -55381,7 +55388,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="514" spans="1:30">
+    <row r="514" spans="1:30" hidden="1">
       <c r="A514" s="9" t="s">
         <v>3219</v>
       </c>
@@ -55473,7 +55480,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="515" spans="1:30">
+    <row r="515" spans="1:30" hidden="1">
       <c r="A515" s="9" t="s">
         <v>3226</v>
       </c>
@@ -55539,7 +55546,7 @@
       <c r="AC515" s="10"/>
       <c r="AD515" s="12"/>
     </row>
-    <row r="516" spans="1:30">
+    <row r="516" spans="1:30" hidden="1">
       <c r="A516" s="9" t="s">
         <v>3232</v>
       </c>
@@ -55631,7 +55638,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="517" spans="1:30">
+    <row r="517" spans="1:30" hidden="1">
       <c r="A517" s="9" t="s">
         <v>3236</v>
       </c>
@@ -55723,7 +55730,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="518" spans="1:30">
+    <row r="518" spans="1:30" hidden="1">
       <c r="A518" s="9" t="s">
         <v>3242</v>
       </c>
@@ -55815,7 +55822,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="519" spans="1:30">
+    <row r="519" spans="1:30" hidden="1">
       <c r="A519" s="9" t="s">
         <v>3250</v>
       </c>
@@ -55907,7 +55914,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="520" spans="1:30">
+    <row r="520" spans="1:30" hidden="1">
       <c r="A520" s="9" t="s">
         <v>3258</v>
       </c>
@@ -55999,7 +56006,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="521" spans="1:30">
+    <row r="521" spans="1:30" hidden="1">
       <c r="A521" s="9" t="s">
         <v>3263</v>
       </c>
@@ -56091,7 +56098,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="522" spans="1:30">
+    <row r="522" spans="1:30" hidden="1">
       <c r="A522" s="9" t="s">
         <v>3265</v>
       </c>
@@ -56183,7 +56190,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="523" spans="1:30">
+    <row r="523" spans="1:30" hidden="1">
       <c r="A523" s="9" t="s">
         <v>3271</v>
       </c>
@@ -56275,7 +56282,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="524" spans="1:30">
+    <row r="524" spans="1:30" hidden="1">
       <c r="A524" s="9" t="s">
         <v>3277</v>
       </c>
@@ -56367,7 +56374,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="525" spans="1:30">
+    <row r="525" spans="1:30" hidden="1">
       <c r="A525" s="9" t="s">
         <v>3284</v>
       </c>
@@ -56459,7 +56466,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="526" spans="1:30">
+    <row r="526" spans="1:30" hidden="1">
       <c r="A526" s="9" t="s">
         <v>3289</v>
       </c>
@@ -56551,7 +56558,7 @@
         <v>3293</v>
       </c>
     </row>
-    <row r="527" spans="1:30">
+    <row r="527" spans="1:30" hidden="1">
       <c r="A527" s="9" t="s">
         <v>3297</v>
       </c>
@@ -56643,7 +56650,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="528" spans="1:30">
+    <row r="528" spans="1:30" hidden="1">
       <c r="A528" s="9" t="s">
         <v>3302</v>
       </c>
@@ -56735,7 +56742,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="529" spans="1:30">
+    <row r="529" spans="1:30" hidden="1">
       <c r="A529" s="9" t="s">
         <v>3313</v>
       </c>
@@ -56827,7 +56834,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="530" spans="1:30">
+    <row r="530" spans="1:30" hidden="1">
       <c r="A530" s="9" t="s">
         <v>3315</v>
       </c>
@@ -56919,7 +56926,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="531" spans="1:30">
+    <row r="531" spans="1:30" hidden="1">
       <c r="A531" s="9" t="s">
         <v>3323</v>
       </c>
@@ -56985,7 +56992,7 @@
       <c r="AC531" s="10"/>
       <c r="AD531" s="12"/>
     </row>
-    <row r="532" spans="1:30">
+    <row r="532" spans="1:30" hidden="1">
       <c r="A532" s="9" t="s">
         <v>3325</v>
       </c>
@@ -57077,7 +57084,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="533" spans="1:30">
+    <row r="533" spans="1:30" hidden="1">
       <c r="A533" s="9" t="s">
         <v>3333</v>
       </c>
@@ -57169,7 +57176,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="534" spans="1:30">
+    <row r="534" spans="1:30" hidden="1">
       <c r="A534" s="9" t="s">
         <v>3337</v>
       </c>
@@ -57261,7 +57268,7 @@
         <v>3338</v>
       </c>
     </row>
-    <row r="535" spans="1:30">
+    <row r="535" spans="1:30" hidden="1">
       <c r="A535" s="9" t="s">
         <v>3343</v>
       </c>
@@ -57353,7 +57360,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="536" spans="1:30">
+    <row r="536" spans="1:30" hidden="1">
       <c r="A536" s="9" t="s">
         <v>3349</v>
       </c>
@@ -57445,7 +57452,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="537" spans="1:30">
+    <row r="537" spans="1:30" hidden="1">
       <c r="A537" s="9" t="s">
         <v>3354</v>
       </c>
@@ -57511,7 +57518,7 @@
       <c r="AC537" s="10"/>
       <c r="AD537" s="12"/>
     </row>
-    <row r="538" spans="1:30">
+    <row r="538" spans="1:30" hidden="1">
       <c r="A538" s="9" t="s">
         <v>3358</v>
       </c>
@@ -57603,7 +57610,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="539" spans="1:30">
+    <row r="539" spans="1:30" hidden="1">
       <c r="A539" s="9" t="s">
         <v>3367</v>
       </c>
@@ -57695,7 +57702,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="540" spans="1:30">
+    <row r="540" spans="1:30" hidden="1">
       <c r="A540" s="9" t="s">
         <v>3371</v>
       </c>
@@ -57761,7 +57768,7 @@
       <c r="AC540" s="10"/>
       <c r="AD540" s="12"/>
     </row>
-    <row r="541" spans="1:30">
+    <row r="541" spans="1:30" hidden="1">
       <c r="A541" s="9" t="s">
         <v>3376</v>
       </c>
@@ -57853,7 +57860,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="542" spans="1:30">
+    <row r="542" spans="1:30" hidden="1">
       <c r="A542" s="9" t="s">
         <v>3380</v>
       </c>
@@ -57919,7 +57926,7 @@
       <c r="AC542" s="10"/>
       <c r="AD542" s="12"/>
     </row>
-    <row r="543" spans="1:30">
+    <row r="543" spans="1:30" hidden="1">
       <c r="A543" s="9" t="s">
         <v>3386</v>
       </c>
@@ -58011,7 +58018,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="544" spans="1:30">
+    <row r="544" spans="1:30" hidden="1">
       <c r="A544" s="9" t="s">
         <v>3392</v>
       </c>
@@ -58103,7 +58110,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="545" spans="1:30">
+    <row r="545" spans="1:30" hidden="1">
       <c r="A545" s="9" t="s">
         <v>3396</v>
       </c>
@@ -58195,7 +58202,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="546" spans="1:30">
+    <row r="546" spans="1:30" hidden="1">
       <c r="A546" s="9" t="s">
         <v>3398</v>
       </c>
@@ -58287,7 +58294,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="547" spans="1:30">
+    <row r="547" spans="1:30" hidden="1">
       <c r="A547" s="9" t="s">
         <v>3404</v>
       </c>
@@ -58379,7 +58386,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="548" spans="1:30">
+    <row r="548" spans="1:30" hidden="1">
       <c r="A548" s="9" t="s">
         <v>3412</v>
       </c>
@@ -58471,7 +58478,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="549" spans="1:30">
+    <row r="549" spans="1:30" hidden="1">
       <c r="A549" s="9" t="s">
         <v>3420</v>
       </c>
@@ -58537,7 +58544,7 @@
       <c r="AC549" s="10"/>
       <c r="AD549" s="12"/>
     </row>
-    <row r="550" spans="1:30">
+    <row r="550" spans="1:30" hidden="1">
       <c r="A550" s="9" t="s">
         <v>3424</v>
       </c>
@@ -58629,7 +58636,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="551" spans="1:30">
+    <row r="551" spans="1:30" hidden="1">
       <c r="A551" s="9" t="s">
         <v>3432</v>
       </c>
@@ -58721,7 +58728,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="552" spans="1:30">
+    <row r="552" spans="1:30" hidden="1">
       <c r="A552" s="9" t="s">
         <v>3442</v>
       </c>
@@ -58813,7 +58820,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="553" spans="1:30">
+    <row r="553" spans="1:30" hidden="1">
       <c r="A553" s="9" t="s">
         <v>3444</v>
       </c>
@@ -58905,7 +58912,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="554" spans="1:30">
+    <row r="554" spans="1:30" hidden="1">
       <c r="A554" s="9" t="s">
         <v>3452</v>
       </c>
@@ -58997,7 +59004,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="555" spans="1:30">
+    <row r="555" spans="1:30" hidden="1">
       <c r="A555" s="9" t="s">
         <v>3456</v>
       </c>
@@ -59089,7 +59096,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="556" spans="1:30">
+    <row r="556" spans="1:30" hidden="1">
       <c r="A556" s="9" t="s">
         <v>3460</v>
       </c>
@@ -59181,7 +59188,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="557" spans="1:30">
+    <row r="557" spans="1:30" hidden="1">
       <c r="A557" s="9" t="s">
         <v>3469</v>
       </c>
@@ -59247,7 +59254,7 @@
       <c r="AC557" s="10"/>
       <c r="AD557" s="12"/>
     </row>
-    <row r="558" spans="1:30">
+    <row r="558" spans="1:30" hidden="1">
       <c r="A558" s="9" t="s">
         <v>3471</v>
       </c>
@@ -59313,7 +59320,7 @@
       <c r="AC558" s="10"/>
       <c r="AD558" s="12"/>
     </row>
-    <row r="559" spans="1:30">
+    <row r="559" spans="1:30" hidden="1">
       <c r="A559" s="9" t="s">
         <v>3478</v>
       </c>
@@ -59405,7 +59412,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="560" spans="1:30">
+    <row r="560" spans="1:30" hidden="1">
       <c r="A560" s="9" t="s">
         <v>3482</v>
       </c>
@@ -59497,7 +59504,7 @@
         <v>3484</v>
       </c>
     </row>
-    <row r="561" spans="1:30">
+    <row r="561" spans="1:30" hidden="1">
       <c r="A561" s="9" t="s">
         <v>3490</v>
       </c>
@@ -59563,7 +59570,7 @@
       <c r="AC561" s="10"/>
       <c r="AD561" s="12"/>
     </row>
-    <row r="562" spans="1:30">
+    <row r="562" spans="1:30" hidden="1">
       <c r="A562" s="9" t="s">
         <v>3494</v>
       </c>
@@ -59655,7 +59662,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="563" spans="1:30">
+    <row r="563" spans="1:30" hidden="1">
       <c r="A563" s="9" t="s">
         <v>3498</v>
       </c>
@@ -59747,7 +59754,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="564" spans="1:30">
+    <row r="564" spans="1:30" hidden="1">
       <c r="A564" s="9" t="s">
         <v>3505</v>
       </c>
@@ -59839,7 +59846,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="565" spans="1:30">
+    <row r="565" spans="1:30" hidden="1">
       <c r="A565" s="9" t="s">
         <v>3509</v>
       </c>
@@ -59905,7 +59912,7 @@
       <c r="AC565" s="10"/>
       <c r="AD565" s="12"/>
     </row>
-    <row r="566" spans="1:30">
+    <row r="566" spans="1:30" hidden="1">
       <c r="A566" s="9" t="s">
         <v>3513</v>
       </c>
@@ -59997,7 +60004,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="567" spans="1:30">
+    <row r="567" spans="1:30" hidden="1">
       <c r="A567" s="9" t="s">
         <v>3519</v>
       </c>
@@ -60089,7 +60096,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="568" spans="1:30">
+    <row r="568" spans="1:30" hidden="1">
       <c r="A568" s="9" t="s">
         <v>3528</v>
       </c>
@@ -60181,7 +60188,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="569" spans="1:30">
+    <row r="569" spans="1:30" hidden="1">
       <c r="A569" s="9" t="s">
         <v>3537</v>
       </c>
@@ -60273,7 +60280,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="570" spans="1:30">
+    <row r="570" spans="1:30" hidden="1">
       <c r="A570" s="9" t="s">
         <v>3543</v>
       </c>
@@ -60365,7 +60372,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="571" spans="1:30">
+    <row r="571" spans="1:30" hidden="1">
       <c r="A571" s="9" t="s">
         <v>3550</v>
       </c>
@@ -60457,7 +60464,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="572" spans="1:30">
+    <row r="572" spans="1:30" hidden="1">
       <c r="A572" s="9" t="s">
         <v>3561</v>
       </c>
@@ -60523,7 +60530,7 @@
       <c r="AC572" s="10"/>
       <c r="AD572" s="12"/>
     </row>
-    <row r="573" spans="1:30">
+    <row r="573" spans="1:30" hidden="1">
       <c r="A573" s="9" t="s">
         <v>3564</v>
       </c>
@@ -60615,7 +60622,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="574" spans="1:30">
+    <row r="574" spans="1:30" hidden="1">
       <c r="A574" s="9" t="s">
         <v>3571</v>
       </c>
@@ -60707,7 +60714,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="575" spans="1:30">
+    <row r="575" spans="1:30" hidden="1">
       <c r="A575" s="9" t="s">
         <v>3577</v>
       </c>
@@ -60799,7 +60806,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="576" spans="1:30">
+    <row r="576" spans="1:30" hidden="1">
       <c r="A576" s="9" t="s">
         <v>3585</v>
       </c>
@@ -60891,7 +60898,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="577" spans="1:30">
+    <row r="577" spans="1:30" hidden="1">
       <c r="A577" s="9" t="s">
         <v>3595</v>
       </c>
@@ -60983,7 +60990,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="578" spans="1:30">
+    <row r="578" spans="1:30" hidden="1">
       <c r="A578" s="9" t="s">
         <v>3601</v>
       </c>
@@ -61075,7 +61082,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="579" spans="1:30">
+    <row r="579" spans="1:30" hidden="1">
       <c r="A579" s="9" t="s">
         <v>3603</v>
       </c>
@@ -61167,7 +61174,7 @@
         <v>3607</v>
       </c>
     </row>
-    <row r="580" spans="1:30">
+    <row r="580" spans="1:30" hidden="1">
       <c r="A580" s="9" t="s">
         <v>3611</v>
       </c>
@@ -61259,7 +61266,7 @@
         <v>3613</v>
       </c>
     </row>
-    <row r="581" spans="1:30">
+    <row r="581" spans="1:30" hidden="1">
       <c r="A581" s="9" t="s">
         <v>3617</v>
       </c>
@@ -61351,7 +61358,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="582" spans="1:30">
+    <row r="582" spans="1:30" hidden="1">
       <c r="A582" s="9" t="s">
         <v>3622</v>
       </c>
@@ -61443,7 +61450,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="583" spans="1:30">
+    <row r="583" spans="1:30" hidden="1">
       <c r="A583" s="9" t="s">
         <v>3631</v>
       </c>
@@ -61535,7 +61542,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="584" spans="1:30">
+    <row r="584" spans="1:30" hidden="1">
       <c r="A584" s="9" t="s">
         <v>3638</v>
       </c>
@@ -61627,7 +61634,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="585" spans="1:30">
+    <row r="585" spans="1:30" hidden="1">
       <c r="A585" s="9" t="s">
         <v>3644</v>
       </c>
@@ -61719,7 +61726,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="586" spans="1:30">
+    <row r="586" spans="1:30" hidden="1">
       <c r="A586" s="13" t="s">
         <v>3654</v>
       </c>
@@ -61834,6 +61841,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
